--- a/_data/ni/ni0304/individueel_eindstand_dworp_12_0304.xlsx
+++ b/_data/ni/ni0304/individueel_eindstand_dworp_12_0304.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840"/>
@@ -24,12 +24,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="12">Ranking!$A$1:$Q$29</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="166">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -148,66 +148,6 @@
     <t>Jaar 2</t>
   </si>
   <si>
-    <t>Geraardsbergen 2</t>
-  </si>
-  <si>
-    <t>Borgerhout 5</t>
-  </si>
-  <si>
-    <t>Ruisbroek 1</t>
-  </si>
-  <si>
-    <t>Roosdaal 1</t>
-  </si>
-  <si>
-    <t>Humbeek 2</t>
-  </si>
-  <si>
-    <t>Machelen 1</t>
-  </si>
-  <si>
-    <t>Hoboken 6</t>
-  </si>
-  <si>
-    <t>Brasschaat 3</t>
-  </si>
-  <si>
-    <t>Sint-Truiden</t>
-  </si>
-  <si>
-    <t>Brussels 2</t>
-  </si>
-  <si>
-    <t>Tibéchecs 1</t>
-  </si>
-  <si>
-    <t>Excelsior 1</t>
-  </si>
-  <si>
-    <t>Lessines 1</t>
-  </si>
-  <si>
-    <t>Mons 2</t>
-  </si>
-  <si>
-    <t>Anderlecht 3</t>
-  </si>
-  <si>
-    <t>Opwijk</t>
-  </si>
-  <si>
-    <t>Fous du Roy 2</t>
-  </si>
-  <si>
-    <t>CRE Charleroi 3</t>
-  </si>
-  <si>
-    <t>Leuze 1</t>
-  </si>
-  <si>
-    <t>Humbeek 3</t>
-  </si>
-  <si>
     <t>228 Dworp 1</t>
   </si>
   <si>
@@ -241,9 +181,6 @@
     <t>Malfliet Bernard</t>
   </si>
   <si>
-    <t>ranking</t>
-  </si>
-  <si>
     <t>bron: het witte jaarverslag 2003-2004</t>
   </si>
   <si>
@@ -260,9 +197,6 @@
   </si>
   <si>
     <t>Carlens Bruno</t>
-  </si>
-  <si>
-    <t>Vangeel Didier</t>
   </si>
   <si>
     <t>Duchateau Arnout</t>
@@ -310,9 +244,6 @@
     <t>Maarse Willy</t>
   </si>
   <si>
-    <t>Dubinh Tim</t>
-  </si>
-  <si>
     <t>Bomans Arno</t>
   </si>
   <si>
@@ -344,9 +275,6 @@
   </si>
   <si>
     <t>Rottier Pierre</t>
-  </si>
-  <si>
-    <t>Desperado Leuven 3</t>
   </si>
   <si>
     <t>Jacques Robrecht</t>
@@ -421,9 +349,6 @@
     <t>Lallemand Paul</t>
   </si>
   <si>
-    <t>LV Leuven 3</t>
-  </si>
-  <si>
     <t>Burger Stefaan</t>
   </si>
   <si>
@@ -475,9 +400,6 @@
     <t>De Bosscher Peter</t>
   </si>
   <si>
-    <t>Wery Benoit</t>
-  </si>
-  <si>
     <t>Pitropakis Anthony</t>
   </si>
   <si>
@@ -511,9 +433,6 @@
     <t>Vanderhelstraete Luc</t>
   </si>
   <si>
-    <t>Léonard Fabrice</t>
-  </si>
-  <si>
     <t>Van Cauwenbergh Philippe</t>
   </si>
   <si>
@@ -534,16 +453,91 @@
   <si>
     <t>Michiels Koen</t>
   </si>
+  <si>
+    <t>204 Excelsior 1</t>
+  </si>
+  <si>
+    <t>733 Sint-Truiden</t>
+  </si>
+  <si>
+    <t>(forfait)</t>
+  </si>
+  <si>
+    <t>109 Borgerhout 5</t>
+  </si>
+  <si>
+    <t>209 Anderlecht 3</t>
+  </si>
+  <si>
+    <t>260 Humbeek 2</t>
+  </si>
+  <si>
+    <t>260 Humbeek 3</t>
+  </si>
+  <si>
+    <t>Dubin Tim</t>
+  </si>
+  <si>
+    <t>240 Machelen 1</t>
+  </si>
+  <si>
+    <t>541 Leuze 1</t>
+  </si>
+  <si>
+    <t>266 Desperado Leuven 3</t>
+  </si>
+  <si>
+    <t>203 Fous du Roy 2</t>
+  </si>
+  <si>
+    <t>174 Brasschaat 3</t>
+  </si>
+  <si>
+    <t>244 Brussels 2</t>
+  </si>
+  <si>
+    <t>249 Ruisbroek 1</t>
+  </si>
+  <si>
+    <t>506 Mons 2</t>
+  </si>
+  <si>
+    <t>Wery Benoît</t>
+  </si>
+  <si>
+    <t>130 Hoboken 6</t>
+  </si>
+  <si>
+    <t>533 Lessines 1</t>
+  </si>
+  <si>
+    <t>269 Roosdaal 1</t>
+  </si>
+  <si>
+    <t>272 Tibéchecs 1</t>
+  </si>
+  <si>
+    <t>418 Geraardsbergen 2</t>
+  </si>
+  <si>
+    <t>501 CRE Charleroi 3</t>
+  </si>
+  <si>
+    <t>243 LV Leuven 3</t>
+  </si>
+  <si>
+    <t>261 Opwijk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,7 +1314,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1"/>
     <cellStyle name="Standaard_Blad2" xfId="2"/>
   </cellStyles>
@@ -1335,9 +1329,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1375,7 +1369,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1409,7 +1403,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1444,10 +1437,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1620,27 +1612,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21">
       <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:7">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1638,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
       <c r="A4" s="23" t="s">
         <v>38</v>
       </c>
@@ -1656,56 +1646,41 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="29"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="30"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="D12" s="68" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1713,14 +1688,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -1735,7 +1708,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
@@ -1746,16 +1719,18 @@
         <v>38032</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1765,11 +1740,11 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1799,7 +1774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1807,10 +1782,10 @@
         <v>20621</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D5" s="18">
-        <v>2297</v>
+        <v>2303</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
@@ -1821,15 +1796,17 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>45888</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="J5" s="18">
         <v>2049</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1837,10 +1814,10 @@
         <v>76317</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D6" s="18">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="E6" s="10">
         <v>0.5</v>
@@ -1851,15 +1828,17 @@
       <c r="G6" s="10">
         <v>0.5</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>26751</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="J6" s="18">
         <v>1802</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1867,10 +1846,10 @@
         <v>48097</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D7" s="18">
-        <v>1861</v>
+        <v>1900</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
@@ -1881,15 +1860,17 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>26719</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="J7" s="18">
         <v>1845</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1897,10 +1878,10 @@
         <v>9954</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D8" s="18">
-        <v>1855</v>
+        <v>1884</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -1911,15 +1892,17 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>4944</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="J8" s="18">
         <v>1818</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1935,7 +1918,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -1951,11 +1934,12 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
-        <v>1959.25</v>
+        <f>IFERROR(AVERAGE(D5:D10),"")</f>
+        <v>1976.25</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -1974,16 +1958,18 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1993,11 +1979,11 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2027,7 +2013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -2035,10 +2021,10 @@
         <v>76333</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D15" s="18">
-        <v>1862</v>
+        <v>1828</v>
       </c>
       <c r="E15" s="10">
         <v>0</v>
@@ -2049,15 +2035,17 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>81698</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="J15" s="18">
         <v>2038</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -2065,10 +2053,10 @@
         <v>353</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D16" s="18">
-        <v>1849</v>
+        <v>1836</v>
       </c>
       <c r="E16" s="10">
         <v>0.5</v>
@@ -2079,15 +2067,17 @@
       <c r="G16" s="10">
         <v>0.5</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>68497</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="J16" s="18">
         <v>1931</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -2095,10 +2085,10 @@
         <v>26816</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D17" s="18">
-        <v>1758</v>
+        <v>1735</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
@@ -2109,15 +2099,17 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>42307</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="J17" s="18">
         <v>1955</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -2125,10 +2117,10 @@
         <v>28681</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D18" s="18">
-        <v>1390</v>
+        <v>1402</v>
       </c>
       <c r="E18" s="12">
         <v>0</v>
@@ -2139,19 +2131,22 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>65293</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="J18" s="18">
         <v>1861</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
-        <v>1689.75</v>
+        <f>IFERROR(AVERAGE(D15:D18),"")</f>
+        <v>1700.25</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -2170,12 +2165,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -2191,7 +2186,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2221,7 +2216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -2237,7 +2232,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -2253,7 +2248,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -2269,7 +2264,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -2285,7 +2280,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -2305,12 +2300,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -2326,7 +2321,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2356,7 +2351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -2372,7 +2367,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -2388,7 +2383,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -2404,7 +2399,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -2420,7 +2415,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -2447,14 +2442,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -2469,7 +2462,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>29</v>
       </c>
@@ -2480,16 +2473,18 @@
         <v>38053</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2499,11 +2494,11 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2533,7 +2528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2541,10 +2536,10 @@
         <v>20621</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D5" s="18">
-        <v>2297</v>
+        <v>2303</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -2555,15 +2550,17 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>19267</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="J5" s="18">
         <v>2184</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2571,10 +2568,10 @@
         <v>76317</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D6" s="18">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="E6" s="10">
         <v>0</v>
@@ -2585,15 +2582,17 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>42161</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="J6" s="18">
         <v>2067</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2601,10 +2600,10 @@
         <v>48097</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D7" s="18">
-        <v>1861</v>
+        <v>1900</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
@@ -2615,15 +2614,17 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>56782</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="J7" s="18">
         <v>1922</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -2631,10 +2632,10 @@
         <v>9954</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D8" s="18">
-        <v>1855</v>
+        <v>1884</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -2645,15 +2646,17 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>61476</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="J8" s="18">
         <v>1869</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -2669,7 +2672,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -2685,11 +2688,12 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
-        <v>1959.25</v>
+        <f>IFERROR(AVERAGE(D5:D10),"")</f>
+        <v>1976.25</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -2708,16 +2712,18 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2727,11 +2733,11 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2761,19 +2767,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19">
-        <v>31526</v>
-      </c>
+      <c r="B15" s="19"/>
       <c r="C15" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="18">
-        <v>1857</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D15" s="18"/>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -2785,13 +2787,11 @@
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="J15" s="18">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -2799,10 +2799,10 @@
         <v>353</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D16" s="18">
-        <v>1849</v>
+        <v>1836</v>
       </c>
       <c r="E16" s="10">
         <v>0.5</v>
@@ -2813,15 +2813,17 @@
       <c r="G16" s="10">
         <v>0.5</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>60569</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="J16" s="18">
         <v>1753</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -2829,10 +2831,10 @@
         <v>26816</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D17" s="18">
-        <v>1758</v>
+        <v>1735</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -2843,15 +2845,17 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>88323</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="J17" s="18">
         <v>1846</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -2859,10 +2863,10 @@
         <v>28681</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D18" s="18">
-        <v>1390</v>
+        <v>1402</v>
       </c>
       <c r="E18" s="12">
         <v>0.5</v>
@@ -2873,19 +2877,22 @@
       <c r="G18" s="12">
         <v>0.5</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>66311</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="J18" s="18">
         <v>1810</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
-        <v>1689.75</v>
+        <f>IFERROR(AVERAGE(D15:D18),"")</f>
+        <v>1657.6666666666667</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -2900,16 +2907,16 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1851.25</v>
+        <v>1803</v>
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -2925,7 +2932,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2955,7 +2962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -2971,7 +2978,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -2987,7 +2994,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -3003,7 +3010,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -3019,7 +3026,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -3039,12 +3046,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -3060,7 +3067,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -3090,7 +3097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -3106,7 +3113,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -3122,7 +3129,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -3138,7 +3145,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -3154,7 +3161,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -3181,14 +3188,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -3203,7 +3208,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>30</v>
       </c>
@@ -3214,30 +3219,32 @@
         <v>38067</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3267,13 +3274,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>30856</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D5" s="18">
         <v>1884</v>
@@ -3291,19 +3300,21 @@
         <v>20621</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="J5" s="18">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>19887</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D6" s="18">
         <v>1780</v>
@@ -3321,19 +3332,21 @@
         <v>76317</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="J6" s="18">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>25313</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D7" s="18">
         <v>1678</v>
@@ -3351,19 +3364,21 @@
         <v>48097</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="J7" s="18">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>21440</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D8" s="18">
         <v>1608</v>
@@ -3381,13 +3396,13 @@
         <v>9954</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J8" s="18">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3403,7 +3418,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3419,7 +3434,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
@@ -3438,34 +3453,37 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="16">
-        <v>1959.25</v>
+        <f>IFERROR(AVERAGE(J5:J10),"")</f>
+        <v>1976.25</v>
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -3495,13 +3513,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>34151</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D15" s="18">
         <v>1856</v>
@@ -3519,19 +3539,21 @@
         <v>76333</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="J15" s="18">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>36005</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D16" s="18">
         <v>1759</v>
@@ -3549,19 +3571,21 @@
         <v>353</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J16" s="18">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>6203</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D17" s="18">
         <v>1699</v>
@@ -3579,19 +3603,21 @@
         <v>26816</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J17" s="18">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>17175</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D18" s="18">
         <v>1601</v>
@@ -3609,13 +3635,13 @@
         <v>28681</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="J18" s="18">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
@@ -3634,16 +3660,17 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">
-        <v>1689.75</v>
+        <f>IFERROR(AVERAGE(J15:J18),"")</f>
+        <v>1700.25</v>
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -3659,7 +3686,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -3689,7 +3716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -3705,7 +3732,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -3721,7 +3748,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -3737,7 +3764,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -3753,7 +3780,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -3773,12 +3800,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -3794,7 +3821,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -3824,7 +3851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -3840,7 +3867,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -3856,7 +3883,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -3872,7 +3899,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -3888,7 +3915,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -3915,14 +3942,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ280"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="31" customWidth="1"/>
@@ -3937,17 +3962,17 @@
     <col min="44" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" ht="21">
       <c r="A1" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="33" t="s">
         <v>32</v>
       </c>
@@ -4024,12 +4049,12 @@
       <c r="AC3" s="51"/>
       <c r="AD3" s="51"/>
     </row>
-    <row r="4" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" s="50" customFormat="1">
       <c r="A4" s="38">
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>37</v>
@@ -4175,12 +4200,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" s="50" customFormat="1">
       <c r="A5" s="38">
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="C5" s="41">
         <v>2</v>
@@ -4326,12 +4351,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" s="50" customFormat="1">
       <c r="A6" s="38">
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="C6" s="41">
         <v>1</v>
@@ -4477,12 +4502,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" s="50" customFormat="1">
       <c r="A7" s="38">
         <v>4</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="C7" s="41">
         <v>0.5</v>
@@ -4628,12 +4653,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" s="50" customFormat="1">
       <c r="A8" s="38">
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C8" s="41">
         <v>1</v>
@@ -4779,12 +4804,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" s="50" customFormat="1">
       <c r="A9" s="38">
         <v>6</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="C9" s="41">
         <v>2.5</v>
@@ -4930,12 +4955,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" s="50" customFormat="1">
       <c r="A10" s="38">
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C10" s="41">
         <v>0.5</v>
@@ -5081,12 +5106,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" s="50" customFormat="1">
       <c r="A11" s="38">
         <v>8</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C11" s="41">
         <v>1</v>
@@ -5232,12 +5257,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" s="50" customFormat="1">
       <c r="A12" s="38">
         <v>9</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="C12" s="41">
         <v>1</v>
@@ -5383,12 +5408,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" s="50" customFormat="1">
       <c r="A13" s="38">
         <v>10</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="C13" s="41">
         <v>1.5</v>
@@ -5534,12 +5559,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" s="50" customFormat="1">
       <c r="A14" s="38">
         <v>11</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="C14" s="41">
         <v>0.5</v>
@@ -5685,12 +5710,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:43" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" s="50" customFormat="1" ht="15.75" thickBot="1">
       <c r="A15" s="44">
         <v>12</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C15" s="46">
         <v>1</v>
@@ -5836,7 +5861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="66" t="s">
         <v>15</v>
       </c>
@@ -5853,7 +5878,7 @@
       <c r="AC16" s="67"/>
       <c r="AD16" s="67"/>
     </row>
-    <row r="17" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="33" t="s">
         <v>32</v>
       </c>
@@ -5930,12 +5955,12 @@
       <c r="AC17" s="51"/>
       <c r="AD17" s="51"/>
     </row>
-    <row r="18" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" s="50" customFormat="1">
       <c r="A18" s="38">
         <v>1</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>37</v>
@@ -6081,12 +6106,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" s="50" customFormat="1">
       <c r="A19" s="38">
         <v>2</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="C19" s="41">
         <v>1</v>
@@ -6232,12 +6257,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" s="50" customFormat="1">
       <c r="A20" s="38">
         <v>3</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="C20" s="41">
         <v>2</v>
@@ -6383,12 +6408,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" s="50" customFormat="1">
       <c r="A21" s="38">
         <v>4</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="C21" s="41">
         <v>1</v>
@@ -6534,12 +6559,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" s="50" customFormat="1">
       <c r="A22" s="38">
         <v>5</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="C22" s="41">
         <v>0.5</v>
@@ -6685,12 +6710,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" s="50" customFormat="1">
       <c r="A23" s="38">
         <v>6</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C23" s="41">
         <v>2</v>
@@ -6836,12 +6861,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" s="50" customFormat="1">
       <c r="A24" s="38">
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="C24" s="41">
         <v>0.5</v>
@@ -6987,12 +7012,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" s="50" customFormat="1">
       <c r="A25" s="38">
         <v>8</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="C25" s="41">
         <v>0.5</v>
@@ -7138,12 +7163,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" s="50" customFormat="1">
       <c r="A26" s="38">
         <v>9</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="C26" s="41">
         <v>0.5</v>
@@ -7289,12 +7314,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" s="50" customFormat="1">
       <c r="A27" s="38">
         <v>10</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C27" s="41">
         <v>0.5</v>
@@ -7440,12 +7465,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" s="50" customFormat="1">
       <c r="A28" s="38">
         <v>11</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="C28" s="41">
         <v>2.5</v>
@@ -7591,12 +7616,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:43" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" s="50" customFormat="1" ht="15.75" thickBot="1">
       <c r="A29" s="44">
         <v>12</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="C29" s="46">
         <v>0.5</v>
@@ -7742,7 +7767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="66" t="s">
         <v>16</v>
       </c>
@@ -7759,7 +7784,7 @@
       <c r="AC30" s="67"/>
       <c r="AD30" s="67"/>
     </row>
-    <row r="31" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="33" t="s">
         <v>32</v>
       </c>
@@ -7836,7 +7861,7 @@
       <c r="AC31" s="51"/>
       <c r="AD31" s="51"/>
     </row>
-    <row r="32" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" s="50" customFormat="1">
       <c r="A32" s="38">
         <v>1</v>
       </c>
@@ -7963,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" s="50" customFormat="1">
       <c r="A33" s="38">
         <v>2</v>
       </c>
@@ -8090,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" s="50" customFormat="1">
       <c r="A34" s="38">
         <v>3</v>
       </c>
@@ -8217,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" s="50" customFormat="1">
       <c r="A35" s="38">
         <v>4</v>
       </c>
@@ -8344,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" s="50" customFormat="1">
       <c r="A36" s="38">
         <v>5</v>
       </c>
@@ -8471,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" s="50" customFormat="1">
       <c r="A37" s="38">
         <v>6</v>
       </c>
@@ -8598,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" s="50" customFormat="1">
       <c r="A38" s="38">
         <v>7</v>
       </c>
@@ -8725,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" s="50" customFormat="1">
       <c r="A39" s="38">
         <v>8</v>
       </c>
@@ -8852,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" s="50" customFormat="1">
       <c r="A40" s="38">
         <v>9</v>
       </c>
@@ -8979,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" s="50" customFormat="1">
       <c r="A41" s="38">
         <v>10</v>
       </c>
@@ -9106,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" s="50" customFormat="1">
       <c r="A42" s="38">
         <v>11</v>
       </c>
@@ -9233,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:43" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:43" s="50" customFormat="1" ht="15.75" thickBot="1">
       <c r="A43" s="44">
         <v>12</v>
       </c>
@@ -9360,7 +9385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="66" t="s">
         <v>17</v>
       </c>
@@ -9377,7 +9402,7 @@
       <c r="AC44" s="67"/>
       <c r="AD44" s="67"/>
     </row>
-    <row r="45" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:43" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="33" t="s">
         <v>32</v>
       </c>
@@ -9454,7 +9479,7 @@
       <c r="AC45" s="51"/>
       <c r="AD45" s="51"/>
     </row>
-    <row r="46" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" s="50" customFormat="1">
       <c r="A46" s="38">
         <v>1</v>
       </c>
@@ -9581,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" s="50" customFormat="1">
       <c r="A47" s="38">
         <v>2</v>
       </c>
@@ -9708,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" s="50" customFormat="1">
       <c r="A48" s="38">
         <v>3</v>
       </c>
@@ -9835,7 +9860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" s="50" customFormat="1">
       <c r="A49" s="38">
         <v>4</v>
       </c>
@@ -9962,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" s="50" customFormat="1">
       <c r="A50" s="38">
         <v>5</v>
       </c>
@@ -10089,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" s="50" customFormat="1">
       <c r="A51" s="38">
         <v>6</v>
       </c>
@@ -10216,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" s="50" customFormat="1">
       <c r="A52" s="38">
         <v>7</v>
       </c>
@@ -10343,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" s="50" customFormat="1">
       <c r="A53" s="38">
         <v>8</v>
       </c>
@@ -10470,7 +10495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" s="50" customFormat="1">
       <c r="A54" s="38">
         <v>9</v>
       </c>
@@ -10597,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" s="50" customFormat="1">
       <c r="A55" s="38">
         <v>10</v>
       </c>
@@ -10724,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" s="50" customFormat="1">
       <c r="A56" s="38">
         <v>11</v>
       </c>
@@ -10851,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:43" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:43" s="50" customFormat="1" ht="15.75" thickBot="1">
       <c r="A57" s="44">
         <v>12</v>
       </c>
@@ -10978,7 +11003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:43" s="50" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" s="50" customFormat="1" ht="15.75" thickTop="1">
       <c r="S58" s="67"/>
       <c r="T58" s="67"/>
       <c r="U58" s="67"/>
@@ -10992,7 +11017,7 @@
       <c r="AC58" s="67"/>
       <c r="AD58" s="67"/>
     </row>
-    <row r="59" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" s="50" customFormat="1">
       <c r="S59" s="67"/>
       <c r="T59" s="67"/>
       <c r="U59" s="67"/>
@@ -11006,7 +11031,7 @@
       <c r="AC59" s="67"/>
       <c r="AD59" s="67"/>
     </row>
-    <row r="60" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" s="50" customFormat="1">
       <c r="S60" s="67"/>
       <c r="T60" s="67"/>
       <c r="U60" s="67"/>
@@ -11020,7 +11045,7 @@
       <c r="AC60" s="67"/>
       <c r="AD60" s="67"/>
     </row>
-    <row r="61" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" s="50" customFormat="1">
       <c r="S61" s="67"/>
       <c r="T61" s="67"/>
       <c r="U61" s="67"/>
@@ -11034,7 +11059,7 @@
       <c r="AC61" s="67"/>
       <c r="AD61" s="67"/>
     </row>
-    <row r="62" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" s="50" customFormat="1">
       <c r="S62" s="67"/>
       <c r="T62" s="67"/>
       <c r="U62" s="67"/>
@@ -11048,7 +11073,7 @@
       <c r="AC62" s="67"/>
       <c r="AD62" s="67"/>
     </row>
-    <row r="63" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" s="50" customFormat="1">
       <c r="S63" s="67"/>
       <c r="T63" s="67"/>
       <c r="U63" s="67"/>
@@ -11062,7 +11087,7 @@
       <c r="AC63" s="67"/>
       <c r="AD63" s="67"/>
     </row>
-    <row r="64" spans="1:43" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" s="50" customFormat="1">
       <c r="S64" s="67"/>
       <c r="T64" s="67"/>
       <c r="U64" s="67"/>
@@ -11076,7 +11101,7 @@
       <c r="AC64" s="67"/>
       <c r="AD64" s="67"/>
     </row>
-    <row r="65" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="19:30" s="50" customFormat="1">
       <c r="S65" s="67"/>
       <c r="T65" s="67"/>
       <c r="U65" s="67"/>
@@ -11090,7 +11115,7 @@
       <c r="AC65" s="67"/>
       <c r="AD65" s="67"/>
     </row>
-    <row r="66" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="19:30" s="50" customFormat="1">
       <c r="S66" s="67"/>
       <c r="T66" s="67"/>
       <c r="U66" s="67"/>
@@ -11104,7 +11129,7 @@
       <c r="AC66" s="67"/>
       <c r="AD66" s="67"/>
     </row>
-    <row r="67" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="19:30" s="50" customFormat="1">
       <c r="S67" s="67"/>
       <c r="T67" s="67"/>
       <c r="U67" s="67"/>
@@ -11118,7 +11143,7 @@
       <c r="AC67" s="67"/>
       <c r="AD67" s="67"/>
     </row>
-    <row r="68" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="19:30" s="50" customFormat="1">
       <c r="S68" s="67"/>
       <c r="T68" s="67"/>
       <c r="U68" s="67"/>
@@ -11132,7 +11157,7 @@
       <c r="AC68" s="67"/>
       <c r="AD68" s="67"/>
     </row>
-    <row r="69" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="19:30" s="50" customFormat="1">
       <c r="S69" s="67"/>
       <c r="T69" s="67"/>
       <c r="U69" s="67"/>
@@ -11146,7 +11171,7 @@
       <c r="AC69" s="67"/>
       <c r="AD69" s="67"/>
     </row>
-    <row r="70" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="19:30" s="50" customFormat="1">
       <c r="S70" s="67"/>
       <c r="T70" s="67"/>
       <c r="U70" s="67"/>
@@ -11160,7 +11185,7 @@
       <c r="AC70" s="67"/>
       <c r="AD70" s="67"/>
     </row>
-    <row r="71" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="19:30" s="50" customFormat="1">
       <c r="S71" s="67"/>
       <c r="T71" s="67"/>
       <c r="U71" s="67"/>
@@ -11174,7 +11199,7 @@
       <c r="AC71" s="67"/>
       <c r="AD71" s="67"/>
     </row>
-    <row r="72" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="19:30" s="50" customFormat="1">
       <c r="S72" s="67"/>
       <c r="T72" s="67"/>
       <c r="U72" s="67"/>
@@ -11188,7 +11213,7 @@
       <c r="AC72" s="67"/>
       <c r="AD72" s="67"/>
     </row>
-    <row r="73" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="19:30" s="50" customFormat="1">
       <c r="S73" s="67"/>
       <c r="T73" s="67"/>
       <c r="U73" s="67"/>
@@ -11202,7 +11227,7 @@
       <c r="AC73" s="67"/>
       <c r="AD73" s="67"/>
     </row>
-    <row r="74" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="19:30" s="50" customFormat="1">
       <c r="S74" s="67"/>
       <c r="T74" s="67"/>
       <c r="U74" s="67"/>
@@ -11216,7 +11241,7 @@
       <c r="AC74" s="67"/>
       <c r="AD74" s="67"/>
     </row>
-    <row r="75" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="19:30" s="50" customFormat="1">
       <c r="S75" s="67"/>
       <c r="T75" s="67"/>
       <c r="U75" s="67"/>
@@ -11230,7 +11255,7 @@
       <c r="AC75" s="67"/>
       <c r="AD75" s="67"/>
     </row>
-    <row r="76" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="19:30" s="50" customFormat="1">
       <c r="S76" s="67"/>
       <c r="T76" s="67"/>
       <c r="U76" s="67"/>
@@ -11244,7 +11269,7 @@
       <c r="AC76" s="67"/>
       <c r="AD76" s="67"/>
     </row>
-    <row r="77" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="19:30" s="50" customFormat="1">
       <c r="S77" s="67"/>
       <c r="T77" s="67"/>
       <c r="U77" s="67"/>
@@ -11258,7 +11283,7 @@
       <c r="AC77" s="67"/>
       <c r="AD77" s="67"/>
     </row>
-    <row r="78" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="19:30" s="50" customFormat="1">
       <c r="S78" s="67"/>
       <c r="T78" s="67"/>
       <c r="U78" s="67"/>
@@ -11272,7 +11297,7 @@
       <c r="AC78" s="67"/>
       <c r="AD78" s="67"/>
     </row>
-    <row r="79" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="19:30" s="50" customFormat="1">
       <c r="S79" s="67"/>
       <c r="T79" s="67"/>
       <c r="U79" s="67"/>
@@ -11286,7 +11311,7 @@
       <c r="AC79" s="67"/>
       <c r="AD79" s="67"/>
     </row>
-    <row r="80" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="19:30" s="50" customFormat="1">
       <c r="S80" s="67"/>
       <c r="T80" s="67"/>
       <c r="U80" s="67"/>
@@ -11300,7 +11325,7 @@
       <c r="AC80" s="67"/>
       <c r="AD80" s="67"/>
     </row>
-    <row r="81" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="19:30" s="50" customFormat="1">
       <c r="S81" s="67"/>
       <c r="T81" s="67"/>
       <c r="U81" s="67"/>
@@ -11314,7 +11339,7 @@
       <c r="AC81" s="67"/>
       <c r="AD81" s="67"/>
     </row>
-    <row r="82" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="19:30" s="50" customFormat="1">
       <c r="S82" s="67"/>
       <c r="T82" s="67"/>
       <c r="U82" s="67"/>
@@ -11328,7 +11353,7 @@
       <c r="AC82" s="67"/>
       <c r="AD82" s="67"/>
     </row>
-    <row r="83" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="19:30" s="50" customFormat="1">
       <c r="S83" s="67"/>
       <c r="T83" s="67"/>
       <c r="U83" s="67"/>
@@ -11342,7 +11367,7 @@
       <c r="AC83" s="67"/>
       <c r="AD83" s="67"/>
     </row>
-    <row r="84" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="19:30" s="50" customFormat="1">
       <c r="S84" s="67"/>
       <c r="T84" s="67"/>
       <c r="U84" s="67"/>
@@ -11356,7 +11381,7 @@
       <c r="AC84" s="67"/>
       <c r="AD84" s="67"/>
     </row>
-    <row r="85" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="19:30" s="50" customFormat="1">
       <c r="S85" s="67"/>
       <c r="T85" s="67"/>
       <c r="U85" s="67"/>
@@ -11370,7 +11395,7 @@
       <c r="AC85" s="67"/>
       <c r="AD85" s="67"/>
     </row>
-    <row r="86" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="19:30" s="50" customFormat="1">
       <c r="S86" s="67"/>
       <c r="T86" s="67"/>
       <c r="U86" s="67"/>
@@ -11384,7 +11409,7 @@
       <c r="AC86" s="67"/>
       <c r="AD86" s="67"/>
     </row>
-    <row r="87" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="19:30" s="50" customFormat="1">
       <c r="S87" s="67"/>
       <c r="T87" s="67"/>
       <c r="U87" s="67"/>
@@ -11398,7 +11423,7 @@
       <c r="AC87" s="67"/>
       <c r="AD87" s="67"/>
     </row>
-    <row r="88" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="19:30" s="50" customFormat="1">
       <c r="S88" s="67"/>
       <c r="T88" s="67"/>
       <c r="U88" s="67"/>
@@ -11412,7 +11437,7 @@
       <c r="AC88" s="67"/>
       <c r="AD88" s="67"/>
     </row>
-    <row r="89" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="19:30" s="50" customFormat="1">
       <c r="S89" s="67"/>
       <c r="T89" s="67"/>
       <c r="U89" s="67"/>
@@ -11426,7 +11451,7 @@
       <c r="AC89" s="67"/>
       <c r="AD89" s="67"/>
     </row>
-    <row r="90" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="19:30" s="50" customFormat="1">
       <c r="S90" s="67"/>
       <c r="T90" s="67"/>
       <c r="U90" s="67"/>
@@ -11440,7 +11465,7 @@
       <c r="AC90" s="67"/>
       <c r="AD90" s="67"/>
     </row>
-    <row r="91" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="19:30" s="50" customFormat="1">
       <c r="S91" s="67"/>
       <c r="T91" s="67"/>
       <c r="U91" s="67"/>
@@ -11454,7 +11479,7 @@
       <c r="AC91" s="67"/>
       <c r="AD91" s="67"/>
     </row>
-    <row r="92" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="19:30" s="50" customFormat="1">
       <c r="S92" s="67"/>
       <c r="T92" s="67"/>
       <c r="U92" s="67"/>
@@ -11468,7 +11493,7 @@
       <c r="AC92" s="67"/>
       <c r="AD92" s="67"/>
     </row>
-    <row r="93" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="19:30" s="50" customFormat="1">
       <c r="S93" s="67"/>
       <c r="T93" s="67"/>
       <c r="U93" s="67"/>
@@ -11482,7 +11507,7 @@
       <c r="AC93" s="67"/>
       <c r="AD93" s="67"/>
     </row>
-    <row r="94" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="19:30" s="50" customFormat="1">
       <c r="S94" s="67"/>
       <c r="T94" s="67"/>
       <c r="U94" s="67"/>
@@ -11496,7 +11521,7 @@
       <c r="AC94" s="67"/>
       <c r="AD94" s="67"/>
     </row>
-    <row r="95" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="19:30" s="50" customFormat="1">
       <c r="S95" s="67"/>
       <c r="T95" s="67"/>
       <c r="U95" s="67"/>
@@ -11510,7 +11535,7 @@
       <c r="AC95" s="67"/>
       <c r="AD95" s="67"/>
     </row>
-    <row r="96" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="19:30" s="50" customFormat="1">
       <c r="S96" s="67"/>
       <c r="T96" s="67"/>
       <c r="U96" s="67"/>
@@ -11524,7 +11549,7 @@
       <c r="AC96" s="67"/>
       <c r="AD96" s="67"/>
     </row>
-    <row r="97" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="19:30" s="50" customFormat="1">
       <c r="S97" s="67"/>
       <c r="T97" s="67"/>
       <c r="U97" s="67"/>
@@ -11538,7 +11563,7 @@
       <c r="AC97" s="67"/>
       <c r="AD97" s="67"/>
     </row>
-    <row r="98" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="19:30" s="50" customFormat="1">
       <c r="S98" s="67"/>
       <c r="T98" s="67"/>
       <c r="U98" s="67"/>
@@ -11552,7 +11577,7 @@
       <c r="AC98" s="67"/>
       <c r="AD98" s="67"/>
     </row>
-    <row r="99" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="19:30" s="50" customFormat="1">
       <c r="S99" s="67"/>
       <c r="T99" s="67"/>
       <c r="U99" s="67"/>
@@ -11566,7 +11591,7 @@
       <c r="AC99" s="67"/>
       <c r="AD99" s="67"/>
     </row>
-    <row r="100" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="19:30" s="50" customFormat="1">
       <c r="S100" s="67"/>
       <c r="T100" s="67"/>
       <c r="U100" s="67"/>
@@ -11580,7 +11605,7 @@
       <c r="AC100" s="67"/>
       <c r="AD100" s="67"/>
     </row>
-    <row r="101" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="19:30" s="50" customFormat="1">
       <c r="S101" s="67"/>
       <c r="T101" s="67"/>
       <c r="U101" s="67"/>
@@ -11594,7 +11619,7 @@
       <c r="AC101" s="67"/>
       <c r="AD101" s="67"/>
     </row>
-    <row r="102" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="19:30" s="50" customFormat="1">
       <c r="S102" s="67"/>
       <c r="T102" s="67"/>
       <c r="U102" s="67"/>
@@ -11608,7 +11633,7 @@
       <c r="AC102" s="67"/>
       <c r="AD102" s="67"/>
     </row>
-    <row r="103" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="19:30" s="50" customFormat="1">
       <c r="S103" s="67"/>
       <c r="T103" s="67"/>
       <c r="U103" s="67"/>
@@ -11622,7 +11647,7 @@
       <c r="AC103" s="67"/>
       <c r="AD103" s="67"/>
     </row>
-    <row r="104" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="19:30" s="50" customFormat="1">
       <c r="S104" s="67"/>
       <c r="T104" s="67"/>
       <c r="U104" s="67"/>
@@ -11636,7 +11661,7 @@
       <c r="AC104" s="67"/>
       <c r="AD104" s="67"/>
     </row>
-    <row r="105" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="19:30" s="50" customFormat="1">
       <c r="S105" s="67"/>
       <c r="T105" s="67"/>
       <c r="U105" s="67"/>
@@ -11650,7 +11675,7 @@
       <c r="AC105" s="67"/>
       <c r="AD105" s="67"/>
     </row>
-    <row r="106" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="19:30" s="50" customFormat="1">
       <c r="S106" s="67"/>
       <c r="T106" s="67"/>
       <c r="U106" s="67"/>
@@ -11664,7 +11689,7 @@
       <c r="AC106" s="67"/>
       <c r="AD106" s="67"/>
     </row>
-    <row r="107" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="19:30" s="50" customFormat="1">
       <c r="S107" s="67"/>
       <c r="T107" s="67"/>
       <c r="U107" s="67"/>
@@ -11678,7 +11703,7 @@
       <c r="AC107" s="67"/>
       <c r="AD107" s="67"/>
     </row>
-    <row r="108" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="19:30" s="50" customFormat="1">
       <c r="S108" s="67"/>
       <c r="T108" s="67"/>
       <c r="U108" s="67"/>
@@ -11692,7 +11717,7 @@
       <c r="AC108" s="67"/>
       <c r="AD108" s="67"/>
     </row>
-    <row r="109" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="19:30" s="50" customFormat="1">
       <c r="S109" s="67"/>
       <c r="T109" s="67"/>
       <c r="U109" s="67"/>
@@ -11706,7 +11731,7 @@
       <c r="AC109" s="67"/>
       <c r="AD109" s="67"/>
     </row>
-    <row r="110" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="19:30" s="50" customFormat="1">
       <c r="S110" s="67"/>
       <c r="T110" s="67"/>
       <c r="U110" s="67"/>
@@ -11720,7 +11745,7 @@
       <c r="AC110" s="67"/>
       <c r="AD110" s="67"/>
     </row>
-    <row r="111" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="19:30" s="50" customFormat="1">
       <c r="S111" s="67"/>
       <c r="T111" s="67"/>
       <c r="U111" s="67"/>
@@ -11734,7 +11759,7 @@
       <c r="AC111" s="67"/>
       <c r="AD111" s="67"/>
     </row>
-    <row r="112" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="19:30" s="50" customFormat="1">
       <c r="S112" s="67"/>
       <c r="T112" s="67"/>
       <c r="U112" s="67"/>
@@ -11748,7 +11773,7 @@
       <c r="AC112" s="67"/>
       <c r="AD112" s="67"/>
     </row>
-    <row r="113" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="19:30" s="50" customFormat="1">
       <c r="S113" s="67"/>
       <c r="T113" s="67"/>
       <c r="U113" s="67"/>
@@ -11762,7 +11787,7 @@
       <c r="AC113" s="67"/>
       <c r="AD113" s="67"/>
     </row>
-    <row r="114" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="19:30" s="50" customFormat="1">
       <c r="S114" s="67"/>
       <c r="T114" s="67"/>
       <c r="U114" s="67"/>
@@ -11776,7 +11801,7 @@
       <c r="AC114" s="67"/>
       <c r="AD114" s="67"/>
     </row>
-    <row r="115" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="19:30" s="50" customFormat="1">
       <c r="S115" s="67"/>
       <c r="T115" s="67"/>
       <c r="U115" s="67"/>
@@ -11790,7 +11815,7 @@
       <c r="AC115" s="67"/>
       <c r="AD115" s="67"/>
     </row>
-    <row r="116" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="19:30" s="50" customFormat="1">
       <c r="S116" s="67"/>
       <c r="T116" s="67"/>
       <c r="U116" s="67"/>
@@ -11804,7 +11829,7 @@
       <c r="AC116" s="67"/>
       <c r="AD116" s="67"/>
     </row>
-    <row r="117" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="19:30" s="50" customFormat="1">
       <c r="S117" s="67"/>
       <c r="T117" s="67"/>
       <c r="U117" s="67"/>
@@ -11818,7 +11843,7 @@
       <c r="AC117" s="67"/>
       <c r="AD117" s="67"/>
     </row>
-    <row r="118" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="19:30" s="50" customFormat="1">
       <c r="S118" s="67"/>
       <c r="T118" s="67"/>
       <c r="U118" s="67"/>
@@ -11832,7 +11857,7 @@
       <c r="AC118" s="67"/>
       <c r="AD118" s="67"/>
     </row>
-    <row r="119" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="19:30" s="50" customFormat="1">
       <c r="S119" s="67"/>
       <c r="T119" s="67"/>
       <c r="U119" s="67"/>
@@ -11846,7 +11871,7 @@
       <c r="AC119" s="67"/>
       <c r="AD119" s="67"/>
     </row>
-    <row r="120" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="19:30" s="50" customFormat="1">
       <c r="S120" s="67"/>
       <c r="T120" s="67"/>
       <c r="U120" s="67"/>
@@ -11860,7 +11885,7 @@
       <c r="AC120" s="67"/>
       <c r="AD120" s="67"/>
     </row>
-    <row r="121" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="19:30" s="50" customFormat="1">
       <c r="S121" s="67"/>
       <c r="T121" s="67"/>
       <c r="U121" s="67"/>
@@ -11874,7 +11899,7 @@
       <c r="AC121" s="67"/>
       <c r="AD121" s="67"/>
     </row>
-    <row r="122" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="19:30" s="50" customFormat="1">
       <c r="S122" s="67"/>
       <c r="T122" s="67"/>
       <c r="U122" s="67"/>
@@ -11888,7 +11913,7 @@
       <c r="AC122" s="67"/>
       <c r="AD122" s="67"/>
     </row>
-    <row r="123" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="19:30" s="50" customFormat="1">
       <c r="S123" s="67"/>
       <c r="T123" s="67"/>
       <c r="U123" s="67"/>
@@ -11902,7 +11927,7 @@
       <c r="AC123" s="67"/>
       <c r="AD123" s="67"/>
     </row>
-    <row r="124" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="19:30" s="50" customFormat="1">
       <c r="S124" s="67"/>
       <c r="T124" s="67"/>
       <c r="U124" s="67"/>
@@ -11916,7 +11941,7 @@
       <c r="AC124" s="67"/>
       <c r="AD124" s="67"/>
     </row>
-    <row r="125" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="19:30" s="50" customFormat="1">
       <c r="S125" s="67"/>
       <c r="T125" s="67"/>
       <c r="U125" s="67"/>
@@ -11930,7 +11955,7 @@
       <c r="AC125" s="67"/>
       <c r="AD125" s="67"/>
     </row>
-    <row r="126" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="19:30" s="50" customFormat="1">
       <c r="S126" s="67"/>
       <c r="T126" s="67"/>
       <c r="U126" s="67"/>
@@ -11944,7 +11969,7 @@
       <c r="AC126" s="67"/>
       <c r="AD126" s="67"/>
     </row>
-    <row r="127" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="19:30" s="50" customFormat="1">
       <c r="S127" s="67"/>
       <c r="T127" s="67"/>
       <c r="U127" s="67"/>
@@ -11958,7 +11983,7 @@
       <c r="AC127" s="67"/>
       <c r="AD127" s="67"/>
     </row>
-    <row r="128" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="19:30" s="50" customFormat="1">
       <c r="S128" s="67"/>
       <c r="T128" s="67"/>
       <c r="U128" s="67"/>
@@ -11972,7 +11997,7 @@
       <c r="AC128" s="67"/>
       <c r="AD128" s="67"/>
     </row>
-    <row r="129" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="19:30" s="50" customFormat="1">
       <c r="S129" s="67"/>
       <c r="T129" s="67"/>
       <c r="U129" s="67"/>
@@ -11986,7 +12011,7 @@
       <c r="AC129" s="67"/>
       <c r="AD129" s="67"/>
     </row>
-    <row r="130" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="19:30" s="50" customFormat="1">
       <c r="S130" s="67"/>
       <c r="T130" s="67"/>
       <c r="U130" s="67"/>
@@ -12000,7 +12025,7 @@
       <c r="AC130" s="67"/>
       <c r="AD130" s="67"/>
     </row>
-    <row r="131" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="19:30" s="50" customFormat="1">
       <c r="S131" s="67"/>
       <c r="T131" s="67"/>
       <c r="U131" s="67"/>
@@ -12014,7 +12039,7 @@
       <c r="AC131" s="67"/>
       <c r="AD131" s="67"/>
     </row>
-    <row r="132" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="19:30" s="50" customFormat="1">
       <c r="S132" s="67"/>
       <c r="T132" s="67"/>
       <c r="U132" s="67"/>
@@ -12028,7 +12053,7 @@
       <c r="AC132" s="67"/>
       <c r="AD132" s="67"/>
     </row>
-    <row r="133" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="19:30" s="50" customFormat="1">
       <c r="S133" s="67"/>
       <c r="T133" s="67"/>
       <c r="U133" s="67"/>
@@ -12042,7 +12067,7 @@
       <c r="AC133" s="67"/>
       <c r="AD133" s="67"/>
     </row>
-    <row r="134" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="19:30" s="50" customFormat="1">
       <c r="S134" s="67"/>
       <c r="T134" s="67"/>
       <c r="U134" s="67"/>
@@ -12056,7 +12081,7 @@
       <c r="AC134" s="67"/>
       <c r="AD134" s="67"/>
     </row>
-    <row r="135" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="19:30" s="50" customFormat="1">
       <c r="S135" s="67"/>
       <c r="T135" s="67"/>
       <c r="U135" s="67"/>
@@ -12070,7 +12095,7 @@
       <c r="AC135" s="67"/>
       <c r="AD135" s="67"/>
     </row>
-    <row r="136" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="19:30" s="50" customFormat="1">
       <c r="S136" s="67"/>
       <c r="T136" s="67"/>
       <c r="U136" s="67"/>
@@ -12084,7 +12109,7 @@
       <c r="AC136" s="67"/>
       <c r="AD136" s="67"/>
     </row>
-    <row r="137" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="19:30" s="50" customFormat="1">
       <c r="S137" s="67"/>
       <c r="T137" s="67"/>
       <c r="U137" s="67"/>
@@ -12098,7 +12123,7 @@
       <c r="AC137" s="67"/>
       <c r="AD137" s="67"/>
     </row>
-    <row r="138" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="19:30" s="50" customFormat="1">
       <c r="S138" s="67"/>
       <c r="T138" s="67"/>
       <c r="U138" s="67"/>
@@ -12112,7 +12137,7 @@
       <c r="AC138" s="67"/>
       <c r="AD138" s="67"/>
     </row>
-    <row r="139" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="19:30" s="50" customFormat="1">
       <c r="S139" s="67"/>
       <c r="T139" s="67"/>
       <c r="U139" s="67"/>
@@ -12126,7 +12151,7 @@
       <c r="AC139" s="67"/>
       <c r="AD139" s="67"/>
     </row>
-    <row r="140" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="19:30" s="50" customFormat="1">
       <c r="S140" s="67"/>
       <c r="T140" s="67"/>
       <c r="U140" s="67"/>
@@ -12140,7 +12165,7 @@
       <c r="AC140" s="67"/>
       <c r="AD140" s="67"/>
     </row>
-    <row r="141" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="19:30" s="50" customFormat="1">
       <c r="S141" s="67"/>
       <c r="T141" s="67"/>
       <c r="U141" s="67"/>
@@ -12154,7 +12179,7 @@
       <c r="AC141" s="67"/>
       <c r="AD141" s="67"/>
     </row>
-    <row r="142" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="19:30" s="50" customFormat="1">
       <c r="S142" s="67"/>
       <c r="T142" s="67"/>
       <c r="U142" s="67"/>
@@ -12168,7 +12193,7 @@
       <c r="AC142" s="67"/>
       <c r="AD142" s="67"/>
     </row>
-    <row r="143" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="19:30" s="50" customFormat="1">
       <c r="S143" s="67"/>
       <c r="T143" s="67"/>
       <c r="U143" s="67"/>
@@ -12182,7 +12207,7 @@
       <c r="AC143" s="67"/>
       <c r="AD143" s="67"/>
     </row>
-    <row r="144" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="19:30" s="50" customFormat="1">
       <c r="S144" s="67"/>
       <c r="T144" s="67"/>
       <c r="U144" s="67"/>
@@ -12196,7 +12221,7 @@
       <c r="AC144" s="67"/>
       <c r="AD144" s="67"/>
     </row>
-    <row r="145" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="19:30" s="50" customFormat="1">
       <c r="S145" s="67"/>
       <c r="T145" s="67"/>
       <c r="U145" s="67"/>
@@ -12210,7 +12235,7 @@
       <c r="AC145" s="67"/>
       <c r="AD145" s="67"/>
     </row>
-    <row r="146" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="19:30" s="50" customFormat="1">
       <c r="S146" s="67"/>
       <c r="T146" s="67"/>
       <c r="U146" s="67"/>
@@ -12224,7 +12249,7 @@
       <c r="AC146" s="67"/>
       <c r="AD146" s="67"/>
     </row>
-    <row r="147" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="19:30" s="50" customFormat="1">
       <c r="S147" s="67"/>
       <c r="T147" s="67"/>
       <c r="U147" s="67"/>
@@ -12238,7 +12263,7 @@
       <c r="AC147" s="67"/>
       <c r="AD147" s="67"/>
     </row>
-    <row r="148" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="19:30" s="50" customFormat="1">
       <c r="S148" s="67"/>
       <c r="T148" s="67"/>
       <c r="U148" s="67"/>
@@ -12252,7 +12277,7 @@
       <c r="AC148" s="67"/>
       <c r="AD148" s="67"/>
     </row>
-    <row r="149" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="19:30" s="50" customFormat="1">
       <c r="S149" s="67"/>
       <c r="T149" s="67"/>
       <c r="U149" s="67"/>
@@ -12266,7 +12291,7 @@
       <c r="AC149" s="67"/>
       <c r="AD149" s="67"/>
     </row>
-    <row r="150" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="19:30" s="50" customFormat="1">
       <c r="S150" s="67"/>
       <c r="T150" s="67"/>
       <c r="U150" s="67"/>
@@ -12280,7 +12305,7 @@
       <c r="AC150" s="67"/>
       <c r="AD150" s="67"/>
     </row>
-    <row r="151" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="19:30" s="50" customFormat="1">
       <c r="S151" s="67"/>
       <c r="T151" s="67"/>
       <c r="U151" s="67"/>
@@ -12294,7 +12319,7 @@
       <c r="AC151" s="67"/>
       <c r="AD151" s="67"/>
     </row>
-    <row r="152" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="19:30" s="50" customFormat="1">
       <c r="S152" s="67"/>
       <c r="T152" s="67"/>
       <c r="U152" s="67"/>
@@ -12308,7 +12333,7 @@
       <c r="AC152" s="67"/>
       <c r="AD152" s="67"/>
     </row>
-    <row r="153" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="19:30" s="50" customFormat="1">
       <c r="S153" s="67"/>
       <c r="T153" s="67"/>
       <c r="U153" s="67"/>
@@ -12322,7 +12347,7 @@
       <c r="AC153" s="67"/>
       <c r="AD153" s="67"/>
     </row>
-    <row r="154" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="19:30" s="50" customFormat="1">
       <c r="S154" s="67"/>
       <c r="T154" s="67"/>
       <c r="U154" s="67"/>
@@ -12336,7 +12361,7 @@
       <c r="AC154" s="67"/>
       <c r="AD154" s="67"/>
     </row>
-    <row r="155" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="19:30" s="50" customFormat="1">
       <c r="S155" s="67"/>
       <c r="T155" s="67"/>
       <c r="U155" s="67"/>
@@ -12350,7 +12375,7 @@
       <c r="AC155" s="67"/>
       <c r="AD155" s="67"/>
     </row>
-    <row r="156" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="19:30" s="50" customFormat="1">
       <c r="S156" s="67"/>
       <c r="T156" s="67"/>
       <c r="U156" s="67"/>
@@ -12364,7 +12389,7 @@
       <c r="AC156" s="67"/>
       <c r="AD156" s="67"/>
     </row>
-    <row r="157" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="19:30" s="50" customFormat="1">
       <c r="S157" s="67"/>
       <c r="T157" s="67"/>
       <c r="U157" s="67"/>
@@ -12378,7 +12403,7 @@
       <c r="AC157" s="67"/>
       <c r="AD157" s="67"/>
     </row>
-    <row r="158" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="19:30" s="50" customFormat="1">
       <c r="S158" s="67"/>
       <c r="T158" s="67"/>
       <c r="U158" s="67"/>
@@ -12392,7 +12417,7 @@
       <c r="AC158" s="67"/>
       <c r="AD158" s="67"/>
     </row>
-    <row r="159" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="19:30" s="50" customFormat="1">
       <c r="S159" s="67"/>
       <c r="T159" s="67"/>
       <c r="U159" s="67"/>
@@ -12406,7 +12431,7 @@
       <c r="AC159" s="67"/>
       <c r="AD159" s="67"/>
     </row>
-    <row r="160" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="19:30" s="50" customFormat="1">
       <c r="S160" s="67"/>
       <c r="T160" s="67"/>
       <c r="U160" s="67"/>
@@ -12420,7 +12445,7 @@
       <c r="AC160" s="67"/>
       <c r="AD160" s="67"/>
     </row>
-    <row r="161" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="19:30" s="50" customFormat="1">
       <c r="S161" s="67"/>
       <c r="T161" s="67"/>
       <c r="U161" s="67"/>
@@ -12434,7 +12459,7 @@
       <c r="AC161" s="67"/>
       <c r="AD161" s="67"/>
     </row>
-    <row r="162" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="19:30" s="50" customFormat="1">
       <c r="S162" s="67"/>
       <c r="T162" s="67"/>
       <c r="U162" s="67"/>
@@ -12448,7 +12473,7 @@
       <c r="AC162" s="67"/>
       <c r="AD162" s="67"/>
     </row>
-    <row r="163" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="19:30" s="50" customFormat="1">
       <c r="S163" s="67"/>
       <c r="T163" s="67"/>
       <c r="U163" s="67"/>
@@ -12462,7 +12487,7 @@
       <c r="AC163" s="67"/>
       <c r="AD163" s="67"/>
     </row>
-    <row r="164" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="19:30" s="50" customFormat="1">
       <c r="S164" s="67"/>
       <c r="T164" s="67"/>
       <c r="U164" s="67"/>
@@ -12476,7 +12501,7 @@
       <c r="AC164" s="67"/>
       <c r="AD164" s="67"/>
     </row>
-    <row r="165" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="19:30" s="50" customFormat="1">
       <c r="S165" s="67"/>
       <c r="T165" s="67"/>
       <c r="U165" s="67"/>
@@ -12490,7 +12515,7 @@
       <c r="AC165" s="67"/>
       <c r="AD165" s="67"/>
     </row>
-    <row r="166" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="19:30" s="50" customFormat="1">
       <c r="S166" s="67"/>
       <c r="T166" s="67"/>
       <c r="U166" s="67"/>
@@ -12504,7 +12529,7 @@
       <c r="AC166" s="67"/>
       <c r="AD166" s="67"/>
     </row>
-    <row r="167" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="19:30" s="50" customFormat="1">
       <c r="S167" s="67"/>
       <c r="T167" s="67"/>
       <c r="U167" s="67"/>
@@ -12518,7 +12543,7 @@
       <c r="AC167" s="67"/>
       <c r="AD167" s="67"/>
     </row>
-    <row r="168" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="19:30" s="50" customFormat="1">
       <c r="S168" s="67"/>
       <c r="T168" s="67"/>
       <c r="U168" s="67"/>
@@ -12532,7 +12557,7 @@
       <c r="AC168" s="67"/>
       <c r="AD168" s="67"/>
     </row>
-    <row r="169" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="19:30" s="50" customFormat="1">
       <c r="S169" s="67"/>
       <c r="T169" s="67"/>
       <c r="U169" s="67"/>
@@ -12546,7 +12571,7 @@
       <c r="AC169" s="67"/>
       <c r="AD169" s="67"/>
     </row>
-    <row r="170" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="19:30" s="50" customFormat="1">
       <c r="S170" s="67"/>
       <c r="T170" s="67"/>
       <c r="U170" s="67"/>
@@ -12560,7 +12585,7 @@
       <c r="AC170" s="67"/>
       <c r="AD170" s="67"/>
     </row>
-    <row r="171" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="19:30" s="50" customFormat="1">
       <c r="S171" s="67"/>
       <c r="T171" s="67"/>
       <c r="U171" s="67"/>
@@ -12574,7 +12599,7 @@
       <c r="AC171" s="67"/>
       <c r="AD171" s="67"/>
     </row>
-    <row r="172" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="19:30" s="50" customFormat="1">
       <c r="S172" s="67"/>
       <c r="T172" s="67"/>
       <c r="U172" s="67"/>
@@ -12588,7 +12613,7 @@
       <c r="AC172" s="67"/>
       <c r="AD172" s="67"/>
     </row>
-    <row r="173" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="19:30" s="50" customFormat="1">
       <c r="S173" s="67"/>
       <c r="T173" s="67"/>
       <c r="U173" s="67"/>
@@ -12602,7 +12627,7 @@
       <c r="AC173" s="67"/>
       <c r="AD173" s="67"/>
     </row>
-    <row r="174" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="19:30" s="50" customFormat="1">
       <c r="S174" s="67"/>
       <c r="T174" s="67"/>
       <c r="U174" s="67"/>
@@ -12616,7 +12641,7 @@
       <c r="AC174" s="67"/>
       <c r="AD174" s="67"/>
     </row>
-    <row r="175" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="19:30" s="50" customFormat="1">
       <c r="S175" s="67"/>
       <c r="T175" s="67"/>
       <c r="U175" s="67"/>
@@ -12630,7 +12655,7 @@
       <c r="AC175" s="67"/>
       <c r="AD175" s="67"/>
     </row>
-    <row r="176" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="19:30" s="50" customFormat="1">
       <c r="S176" s="67"/>
       <c r="T176" s="67"/>
       <c r="U176" s="67"/>
@@ -12644,7 +12669,7 @@
       <c r="AC176" s="67"/>
       <c r="AD176" s="67"/>
     </row>
-    <row r="177" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="19:30" s="50" customFormat="1">
       <c r="S177" s="67"/>
       <c r="T177" s="67"/>
       <c r="U177" s="67"/>
@@ -12658,7 +12683,7 @@
       <c r="AC177" s="67"/>
       <c r="AD177" s="67"/>
     </row>
-    <row r="178" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="19:30" s="50" customFormat="1">
       <c r="S178" s="67"/>
       <c r="T178" s="67"/>
       <c r="U178" s="67"/>
@@ -12672,7 +12697,7 @@
       <c r="AC178" s="67"/>
       <c r="AD178" s="67"/>
     </row>
-    <row r="179" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="19:30" s="50" customFormat="1">
       <c r="S179" s="67"/>
       <c r="T179" s="67"/>
       <c r="U179" s="67"/>
@@ -12686,7 +12711,7 @@
       <c r="AC179" s="67"/>
       <c r="AD179" s="67"/>
     </row>
-    <row r="180" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="19:30" s="50" customFormat="1">
       <c r="S180" s="67"/>
       <c r="T180" s="67"/>
       <c r="U180" s="67"/>
@@ -12700,7 +12725,7 @@
       <c r="AC180" s="67"/>
       <c r="AD180" s="67"/>
     </row>
-    <row r="181" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="19:30" s="50" customFormat="1">
       <c r="S181" s="67"/>
       <c r="T181" s="67"/>
       <c r="U181" s="67"/>
@@ -12714,7 +12739,7 @@
       <c r="AC181" s="67"/>
       <c r="AD181" s="67"/>
     </row>
-    <row r="182" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="19:30" s="50" customFormat="1">
       <c r="S182" s="67"/>
       <c r="T182" s="67"/>
       <c r="U182" s="67"/>
@@ -12728,7 +12753,7 @@
       <c r="AC182" s="67"/>
       <c r="AD182" s="67"/>
     </row>
-    <row r="183" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="19:30" s="50" customFormat="1">
       <c r="S183" s="67"/>
       <c r="T183" s="67"/>
       <c r="U183" s="67"/>
@@ -12742,7 +12767,7 @@
       <c r="AC183" s="67"/>
       <c r="AD183" s="67"/>
     </row>
-    <row r="184" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="19:30" s="50" customFormat="1">
       <c r="S184" s="67"/>
       <c r="T184" s="67"/>
       <c r="U184" s="67"/>
@@ -12756,7 +12781,7 @@
       <c r="AC184" s="67"/>
       <c r="AD184" s="67"/>
     </row>
-    <row r="185" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="19:30" s="50" customFormat="1">
       <c r="S185" s="67"/>
       <c r="T185" s="67"/>
       <c r="U185" s="67"/>
@@ -12770,7 +12795,7 @@
       <c r="AC185" s="67"/>
       <c r="AD185" s="67"/>
     </row>
-    <row r="186" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="19:30" s="50" customFormat="1">
       <c r="S186" s="67"/>
       <c r="T186" s="67"/>
       <c r="U186" s="67"/>
@@ -12784,7 +12809,7 @@
       <c r="AC186" s="67"/>
       <c r="AD186" s="67"/>
     </row>
-    <row r="187" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="19:30" s="50" customFormat="1">
       <c r="S187" s="67"/>
       <c r="T187" s="67"/>
       <c r="U187" s="67"/>
@@ -12798,7 +12823,7 @@
       <c r="AC187" s="67"/>
       <c r="AD187" s="67"/>
     </row>
-    <row r="188" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="19:30" s="50" customFormat="1">
       <c r="S188" s="67"/>
       <c r="T188" s="67"/>
       <c r="U188" s="67"/>
@@ -12812,7 +12837,7 @@
       <c r="AC188" s="67"/>
       <c r="AD188" s="67"/>
     </row>
-    <row r="189" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="19:30" s="50" customFormat="1">
       <c r="S189" s="67"/>
       <c r="T189" s="67"/>
       <c r="U189" s="67"/>
@@ -12826,7 +12851,7 @@
       <c r="AC189" s="67"/>
       <c r="AD189" s="67"/>
     </row>
-    <row r="190" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="19:30" s="50" customFormat="1">
       <c r="S190" s="67"/>
       <c r="T190" s="67"/>
       <c r="U190" s="67"/>
@@ -12840,7 +12865,7 @@
       <c r="AC190" s="67"/>
       <c r="AD190" s="67"/>
     </row>
-    <row r="191" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="19:30" s="50" customFormat="1">
       <c r="S191" s="67"/>
       <c r="T191" s="67"/>
       <c r="U191" s="67"/>
@@ -12854,7 +12879,7 @@
       <c r="AC191" s="67"/>
       <c r="AD191" s="67"/>
     </row>
-    <row r="192" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="19:30" s="50" customFormat="1">
       <c r="S192" s="67"/>
       <c r="T192" s="67"/>
       <c r="U192" s="67"/>
@@ -12868,7 +12893,7 @@
       <c r="AC192" s="67"/>
       <c r="AD192" s="67"/>
     </row>
-    <row r="193" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="19:30" s="50" customFormat="1">
       <c r="S193" s="67"/>
       <c r="T193" s="67"/>
       <c r="U193" s="67"/>
@@ -12882,7 +12907,7 @@
       <c r="AC193" s="67"/>
       <c r="AD193" s="67"/>
     </row>
-    <row r="194" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="19:30" s="50" customFormat="1">
       <c r="S194" s="67"/>
       <c r="T194" s="67"/>
       <c r="U194" s="67"/>
@@ -12896,7 +12921,7 @@
       <c r="AC194" s="67"/>
       <c r="AD194" s="67"/>
     </row>
-    <row r="195" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="19:30" s="50" customFormat="1">
       <c r="S195" s="67"/>
       <c r="T195" s="67"/>
       <c r="U195" s="67"/>
@@ -12910,7 +12935,7 @@
       <c r="AC195" s="67"/>
       <c r="AD195" s="67"/>
     </row>
-    <row r="196" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="19:30" s="50" customFormat="1">
       <c r="S196" s="67"/>
       <c r="T196" s="67"/>
       <c r="U196" s="67"/>
@@ -12924,7 +12949,7 @@
       <c r="AC196" s="67"/>
       <c r="AD196" s="67"/>
     </row>
-    <row r="197" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="19:30" s="50" customFormat="1">
       <c r="S197" s="67"/>
       <c r="T197" s="67"/>
       <c r="U197" s="67"/>
@@ -12938,7 +12963,7 @@
       <c r="AC197" s="67"/>
       <c r="AD197" s="67"/>
     </row>
-    <row r="198" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="19:30" s="50" customFormat="1">
       <c r="S198" s="67"/>
       <c r="T198" s="67"/>
       <c r="U198" s="67"/>
@@ -12952,7 +12977,7 @@
       <c r="AC198" s="67"/>
       <c r="AD198" s="67"/>
     </row>
-    <row r="199" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="19:30" s="50" customFormat="1">
       <c r="S199" s="67"/>
       <c r="T199" s="67"/>
       <c r="U199" s="67"/>
@@ -12966,7 +12991,7 @@
       <c r="AC199" s="67"/>
       <c r="AD199" s="67"/>
     </row>
-    <row r="200" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="19:30" s="50" customFormat="1">
       <c r="S200" s="67"/>
       <c r="T200" s="67"/>
       <c r="U200" s="67"/>
@@ -12980,7 +13005,7 @@
       <c r="AC200" s="67"/>
       <c r="AD200" s="67"/>
     </row>
-    <row r="201" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="19:30" s="50" customFormat="1">
       <c r="S201" s="67"/>
       <c r="T201" s="67"/>
       <c r="U201" s="67"/>
@@ -12994,7 +13019,7 @@
       <c r="AC201" s="67"/>
       <c r="AD201" s="67"/>
     </row>
-    <row r="202" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="19:30" s="50" customFormat="1">
       <c r="S202" s="67"/>
       <c r="T202" s="67"/>
       <c r="U202" s="67"/>
@@ -13008,7 +13033,7 @@
       <c r="AC202" s="67"/>
       <c r="AD202" s="67"/>
     </row>
-    <row r="203" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="19:30" s="50" customFormat="1">
       <c r="S203" s="67"/>
       <c r="T203" s="67"/>
       <c r="U203" s="67"/>
@@ -13022,7 +13047,7 @@
       <c r="AC203" s="67"/>
       <c r="AD203" s="67"/>
     </row>
-    <row r="204" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="19:30" s="50" customFormat="1">
       <c r="S204" s="67"/>
       <c r="T204" s="67"/>
       <c r="U204" s="67"/>
@@ -13036,7 +13061,7 @@
       <c r="AC204" s="67"/>
       <c r="AD204" s="67"/>
     </row>
-    <row r="205" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="19:30" s="50" customFormat="1">
       <c r="S205" s="67"/>
       <c r="T205" s="67"/>
       <c r="U205" s="67"/>
@@ -13050,7 +13075,7 @@
       <c r="AC205" s="67"/>
       <c r="AD205" s="67"/>
     </row>
-    <row r="206" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="19:30" s="50" customFormat="1">
       <c r="S206" s="67"/>
       <c r="T206" s="67"/>
       <c r="U206" s="67"/>
@@ -13064,7 +13089,7 @@
       <c r="AC206" s="67"/>
       <c r="AD206" s="67"/>
     </row>
-    <row r="207" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="19:30" s="50" customFormat="1">
       <c r="S207" s="67"/>
       <c r="T207" s="67"/>
       <c r="U207" s="67"/>
@@ -13078,7 +13103,7 @@
       <c r="AC207" s="67"/>
       <c r="AD207" s="67"/>
     </row>
-    <row r="208" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="19:30" s="50" customFormat="1">
       <c r="S208" s="67"/>
       <c r="T208" s="67"/>
       <c r="U208" s="67"/>
@@ -13092,7 +13117,7 @@
       <c r="AC208" s="67"/>
       <c r="AD208" s="67"/>
     </row>
-    <row r="209" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="19:30" s="50" customFormat="1">
       <c r="S209" s="67"/>
       <c r="T209" s="67"/>
       <c r="U209" s="67"/>
@@ -13106,7 +13131,7 @@
       <c r="AC209" s="67"/>
       <c r="AD209" s="67"/>
     </row>
-    <row r="210" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="19:30" s="50" customFormat="1">
       <c r="S210" s="67"/>
       <c r="T210" s="67"/>
       <c r="U210" s="67"/>
@@ -13120,7 +13145,7 @@
       <c r="AC210" s="67"/>
       <c r="AD210" s="67"/>
     </row>
-    <row r="211" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="19:30" s="50" customFormat="1">
       <c r="S211" s="67"/>
       <c r="T211" s="67"/>
       <c r="U211" s="67"/>
@@ -13134,7 +13159,7 @@
       <c r="AC211" s="67"/>
       <c r="AD211" s="67"/>
     </row>
-    <row r="212" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="19:30" s="50" customFormat="1">
       <c r="S212" s="67"/>
       <c r="T212" s="67"/>
       <c r="U212" s="67"/>
@@ -13148,7 +13173,7 @@
       <c r="AC212" s="67"/>
       <c r="AD212" s="67"/>
     </row>
-    <row r="213" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="19:30" s="50" customFormat="1">
       <c r="S213" s="67"/>
       <c r="T213" s="67"/>
       <c r="U213" s="67"/>
@@ -13162,7 +13187,7 @@
       <c r="AC213" s="67"/>
       <c r="AD213" s="67"/>
     </row>
-    <row r="214" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="19:30" s="50" customFormat="1">
       <c r="S214" s="67"/>
       <c r="T214" s="67"/>
       <c r="U214" s="67"/>
@@ -13176,7 +13201,7 @@
       <c r="AC214" s="67"/>
       <c r="AD214" s="67"/>
     </row>
-    <row r="215" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="19:30" s="50" customFormat="1">
       <c r="S215" s="67"/>
       <c r="T215" s="67"/>
       <c r="U215" s="67"/>
@@ -13190,7 +13215,7 @@
       <c r="AC215" s="67"/>
       <c r="AD215" s="67"/>
     </row>
-    <row r="216" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="19:30" s="50" customFormat="1">
       <c r="S216" s="67"/>
       <c r="T216" s="67"/>
       <c r="U216" s="67"/>
@@ -13204,7 +13229,7 @@
       <c r="AC216" s="67"/>
       <c r="AD216" s="67"/>
     </row>
-    <row r="217" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="19:30" s="50" customFormat="1">
       <c r="S217" s="67"/>
       <c r="T217" s="67"/>
       <c r="U217" s="67"/>
@@ -13218,7 +13243,7 @@
       <c r="AC217" s="67"/>
       <c r="AD217" s="67"/>
     </row>
-    <row r="218" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="19:30" s="50" customFormat="1">
       <c r="S218" s="67"/>
       <c r="T218" s="67"/>
       <c r="U218" s="67"/>
@@ -13232,7 +13257,7 @@
       <c r="AC218" s="67"/>
       <c r="AD218" s="67"/>
     </row>
-    <row r="219" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="19:30" s="50" customFormat="1">
       <c r="S219" s="67"/>
       <c r="T219" s="67"/>
       <c r="U219" s="67"/>
@@ -13246,7 +13271,7 @@
       <c r="AC219" s="67"/>
       <c r="AD219" s="67"/>
     </row>
-    <row r="220" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="19:30" s="50" customFormat="1">
       <c r="S220" s="67"/>
       <c r="T220" s="67"/>
       <c r="U220" s="67"/>
@@ -13260,7 +13285,7 @@
       <c r="AC220" s="67"/>
       <c r="AD220" s="67"/>
     </row>
-    <row r="221" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="19:30" s="50" customFormat="1">
       <c r="S221" s="67"/>
       <c r="T221" s="67"/>
       <c r="U221" s="67"/>
@@ -13274,7 +13299,7 @@
       <c r="AC221" s="67"/>
       <c r="AD221" s="67"/>
     </row>
-    <row r="222" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="19:30" s="50" customFormat="1">
       <c r="S222" s="67"/>
       <c r="T222" s="67"/>
       <c r="U222" s="67"/>
@@ -13288,7 +13313,7 @@
       <c r="AC222" s="67"/>
       <c r="AD222" s="67"/>
     </row>
-    <row r="223" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="19:30" s="50" customFormat="1">
       <c r="S223" s="67"/>
       <c r="T223" s="67"/>
       <c r="U223" s="67"/>
@@ -13302,7 +13327,7 @@
       <c r="AC223" s="67"/>
       <c r="AD223" s="67"/>
     </row>
-    <row r="224" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="19:30" s="50" customFormat="1">
       <c r="S224" s="67"/>
       <c r="T224" s="67"/>
       <c r="U224" s="67"/>
@@ -13316,7 +13341,7 @@
       <c r="AC224" s="67"/>
       <c r="AD224" s="67"/>
     </row>
-    <row r="225" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="19:30" s="50" customFormat="1">
       <c r="S225" s="67"/>
       <c r="T225" s="67"/>
       <c r="U225" s="67"/>
@@ -13330,7 +13355,7 @@
       <c r="AC225" s="67"/>
       <c r="AD225" s="67"/>
     </row>
-    <row r="226" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="19:30" s="50" customFormat="1">
       <c r="S226" s="67"/>
       <c r="T226" s="67"/>
       <c r="U226" s="67"/>
@@ -13344,7 +13369,7 @@
       <c r="AC226" s="67"/>
       <c r="AD226" s="67"/>
     </row>
-    <row r="227" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="19:30" s="50" customFormat="1">
       <c r="S227" s="67"/>
       <c r="T227" s="67"/>
       <c r="U227" s="67"/>
@@ -13358,7 +13383,7 @@
       <c r="AC227" s="67"/>
       <c r="AD227" s="67"/>
     </row>
-    <row r="228" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="19:30" s="50" customFormat="1">
       <c r="S228" s="67"/>
       <c r="T228" s="67"/>
       <c r="U228" s="67"/>
@@ -13372,7 +13397,7 @@
       <c r="AC228" s="67"/>
       <c r="AD228" s="67"/>
     </row>
-    <row r="229" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="19:30" s="50" customFormat="1">
       <c r="S229" s="67"/>
       <c r="T229" s="67"/>
       <c r="U229" s="67"/>
@@ -13386,7 +13411,7 @@
       <c r="AC229" s="67"/>
       <c r="AD229" s="67"/>
     </row>
-    <row r="230" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="19:30" s="50" customFormat="1">
       <c r="S230" s="67"/>
       <c r="T230" s="67"/>
       <c r="U230" s="67"/>
@@ -13400,7 +13425,7 @@
       <c r="AC230" s="67"/>
       <c r="AD230" s="67"/>
     </row>
-    <row r="231" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="19:30" s="50" customFormat="1">
       <c r="S231" s="67"/>
       <c r="T231" s="67"/>
       <c r="U231" s="67"/>
@@ -13414,7 +13439,7 @@
       <c r="AC231" s="67"/>
       <c r="AD231" s="67"/>
     </row>
-    <row r="232" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="19:30" s="50" customFormat="1">
       <c r="S232" s="67"/>
       <c r="T232" s="67"/>
       <c r="U232" s="67"/>
@@ -13428,7 +13453,7 @@
       <c r="AC232" s="67"/>
       <c r="AD232" s="67"/>
     </row>
-    <row r="233" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="19:30" s="50" customFormat="1">
       <c r="S233" s="67"/>
       <c r="T233" s="67"/>
       <c r="U233" s="67"/>
@@ -13442,7 +13467,7 @@
       <c r="AC233" s="67"/>
       <c r="AD233" s="67"/>
     </row>
-    <row r="234" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="19:30" s="50" customFormat="1">
       <c r="S234" s="67"/>
       <c r="T234" s="67"/>
       <c r="U234" s="67"/>
@@ -13456,7 +13481,7 @@
       <c r="AC234" s="67"/>
       <c r="AD234" s="67"/>
     </row>
-    <row r="235" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="19:30" s="50" customFormat="1">
       <c r="S235" s="67"/>
       <c r="T235" s="67"/>
       <c r="U235" s="67"/>
@@ -13470,7 +13495,7 @@
       <c r="AC235" s="67"/>
       <c r="AD235" s="67"/>
     </row>
-    <row r="236" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="19:30" s="50" customFormat="1">
       <c r="S236" s="67"/>
       <c r="T236" s="67"/>
       <c r="U236" s="67"/>
@@ -13484,7 +13509,7 @@
       <c r="AC236" s="67"/>
       <c r="AD236" s="67"/>
     </row>
-    <row r="237" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="19:30" s="50" customFormat="1">
       <c r="S237" s="67"/>
       <c r="T237" s="67"/>
       <c r="U237" s="67"/>
@@ -13498,7 +13523,7 @@
       <c r="AC237" s="67"/>
       <c r="AD237" s="67"/>
     </row>
-    <row r="238" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="19:30" s="50" customFormat="1">
       <c r="S238" s="67"/>
       <c r="T238" s="67"/>
       <c r="U238" s="67"/>
@@ -13512,7 +13537,7 @@
       <c r="AC238" s="67"/>
       <c r="AD238" s="67"/>
     </row>
-    <row r="239" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="19:30" s="50" customFormat="1">
       <c r="S239" s="67"/>
       <c r="T239" s="67"/>
       <c r="U239" s="67"/>
@@ -13526,7 +13551,7 @@
       <c r="AC239" s="67"/>
       <c r="AD239" s="67"/>
     </row>
-    <row r="240" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="19:30" s="50" customFormat="1">
       <c r="S240" s="67"/>
       <c r="T240" s="67"/>
       <c r="U240" s="67"/>
@@ -13540,7 +13565,7 @@
       <c r="AC240" s="67"/>
       <c r="AD240" s="67"/>
     </row>
-    <row r="241" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="19:30" s="50" customFormat="1">
       <c r="S241" s="67"/>
       <c r="T241" s="67"/>
       <c r="U241" s="67"/>
@@ -13554,7 +13579,7 @@
       <c r="AC241" s="67"/>
       <c r="AD241" s="67"/>
     </row>
-    <row r="242" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="19:30" s="50" customFormat="1">
       <c r="S242" s="67"/>
       <c r="T242" s="67"/>
       <c r="U242" s="67"/>
@@ -13568,7 +13593,7 @@
       <c r="AC242" s="67"/>
       <c r="AD242" s="67"/>
     </row>
-    <row r="243" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="19:30" s="50" customFormat="1">
       <c r="S243" s="67"/>
       <c r="T243" s="67"/>
       <c r="U243" s="67"/>
@@ -13582,7 +13607,7 @@
       <c r="AC243" s="67"/>
       <c r="AD243" s="67"/>
     </row>
-    <row r="244" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="19:30" s="50" customFormat="1">
       <c r="S244" s="67"/>
       <c r="T244" s="67"/>
       <c r="U244" s="67"/>
@@ -13596,7 +13621,7 @@
       <c r="AC244" s="67"/>
       <c r="AD244" s="67"/>
     </row>
-    <row r="245" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="19:30" s="50" customFormat="1">
       <c r="S245" s="67"/>
       <c r="T245" s="67"/>
       <c r="U245" s="67"/>
@@ -13610,7 +13635,7 @@
       <c r="AC245" s="67"/>
       <c r="AD245" s="67"/>
     </row>
-    <row r="246" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="19:30" s="50" customFormat="1">
       <c r="S246" s="67"/>
       <c r="T246" s="67"/>
       <c r="U246" s="67"/>
@@ -13624,7 +13649,7 @@
       <c r="AC246" s="67"/>
       <c r="AD246" s="67"/>
     </row>
-    <row r="247" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="19:30" s="50" customFormat="1">
       <c r="S247" s="67"/>
       <c r="T247" s="67"/>
       <c r="U247" s="67"/>
@@ -13638,7 +13663,7 @@
       <c r="AC247" s="67"/>
       <c r="AD247" s="67"/>
     </row>
-    <row r="248" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="19:30" s="50" customFormat="1">
       <c r="S248" s="67"/>
       <c r="T248" s="67"/>
       <c r="U248" s="67"/>
@@ -13652,7 +13677,7 @@
       <c r="AC248" s="67"/>
       <c r="AD248" s="67"/>
     </row>
-    <row r="249" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="19:30" s="50" customFormat="1">
       <c r="S249" s="67"/>
       <c r="T249" s="67"/>
       <c r="U249" s="67"/>
@@ -13666,7 +13691,7 @@
       <c r="AC249" s="67"/>
       <c r="AD249" s="67"/>
     </row>
-    <row r="250" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="19:30" s="50" customFormat="1">
       <c r="S250" s="67"/>
       <c r="T250" s="67"/>
       <c r="U250" s="67"/>
@@ -13680,7 +13705,7 @@
       <c r="AC250" s="67"/>
       <c r="AD250" s="67"/>
     </row>
-    <row r="251" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="19:30" s="50" customFormat="1">
       <c r="S251" s="67"/>
       <c r="T251" s="67"/>
       <c r="U251" s="67"/>
@@ -13694,7 +13719,7 @@
       <c r="AC251" s="67"/>
       <c r="AD251" s="67"/>
     </row>
-    <row r="252" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="19:30" s="50" customFormat="1">
       <c r="S252" s="67"/>
       <c r="T252" s="67"/>
       <c r="U252" s="67"/>
@@ -13708,7 +13733,7 @@
       <c r="AC252" s="67"/>
       <c r="AD252" s="67"/>
     </row>
-    <row r="253" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="19:30" s="50" customFormat="1">
       <c r="S253" s="67"/>
       <c r="T253" s="67"/>
       <c r="U253" s="67"/>
@@ -13722,7 +13747,7 @@
       <c r="AC253" s="67"/>
       <c r="AD253" s="67"/>
     </row>
-    <row r="254" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="19:30" s="50" customFormat="1">
       <c r="S254" s="67"/>
       <c r="T254" s="67"/>
       <c r="U254" s="67"/>
@@ -13736,7 +13761,7 @@
       <c r="AC254" s="67"/>
       <c r="AD254" s="67"/>
     </row>
-    <row r="255" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="19:30" s="50" customFormat="1">
       <c r="S255" s="67"/>
       <c r="T255" s="67"/>
       <c r="U255" s="67"/>
@@ -13750,7 +13775,7 @@
       <c r="AC255" s="67"/>
       <c r="AD255" s="67"/>
     </row>
-    <row r="256" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="19:30" s="50" customFormat="1">
       <c r="S256" s="67"/>
       <c r="T256" s="67"/>
       <c r="U256" s="67"/>
@@ -13764,7 +13789,7 @@
       <c r="AC256" s="67"/>
       <c r="AD256" s="67"/>
     </row>
-    <row r="257" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="19:30" s="50" customFormat="1">
       <c r="S257" s="67"/>
       <c r="T257" s="67"/>
       <c r="U257" s="67"/>
@@ -13778,7 +13803,7 @@
       <c r="AC257" s="67"/>
       <c r="AD257" s="67"/>
     </row>
-    <row r="258" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="19:30" s="50" customFormat="1">
       <c r="S258" s="67"/>
       <c r="T258" s="67"/>
       <c r="U258" s="67"/>
@@ -13792,7 +13817,7 @@
       <c r="AC258" s="67"/>
       <c r="AD258" s="67"/>
     </row>
-    <row r="259" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="19:30" s="50" customFormat="1">
       <c r="S259" s="67"/>
       <c r="T259" s="67"/>
       <c r="U259" s="67"/>
@@ -13806,7 +13831,7 @@
       <c r="AC259" s="67"/>
       <c r="AD259" s="67"/>
     </row>
-    <row r="260" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="19:30" s="50" customFormat="1">
       <c r="S260" s="67"/>
       <c r="T260" s="67"/>
       <c r="U260" s="67"/>
@@ -13820,7 +13845,7 @@
       <c r="AC260" s="67"/>
       <c r="AD260" s="67"/>
     </row>
-    <row r="261" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="19:30" s="50" customFormat="1">
       <c r="S261" s="67"/>
       <c r="T261" s="67"/>
       <c r="U261" s="67"/>
@@ -13834,7 +13859,7 @@
       <c r="AC261" s="67"/>
       <c r="AD261" s="67"/>
     </row>
-    <row r="262" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="19:30" s="50" customFormat="1">
       <c r="S262" s="67"/>
       <c r="T262" s="67"/>
       <c r="U262" s="67"/>
@@ -13848,7 +13873,7 @@
       <c r="AC262" s="67"/>
       <c r="AD262" s="67"/>
     </row>
-    <row r="263" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="19:30" s="50" customFormat="1">
       <c r="S263" s="67"/>
       <c r="T263" s="67"/>
       <c r="U263" s="67"/>
@@ -13862,7 +13887,7 @@
       <c r="AC263" s="67"/>
       <c r="AD263" s="67"/>
     </row>
-    <row r="264" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="19:30" s="50" customFormat="1">
       <c r="S264" s="67"/>
       <c r="T264" s="67"/>
       <c r="U264" s="67"/>
@@ -13876,7 +13901,7 @@
       <c r="AC264" s="67"/>
       <c r="AD264" s="67"/>
     </row>
-    <row r="265" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="19:30" s="50" customFormat="1">
       <c r="S265" s="67"/>
       <c r="T265" s="67"/>
       <c r="U265" s="67"/>
@@ -13890,7 +13915,7 @@
       <c r="AC265" s="67"/>
       <c r="AD265" s="67"/>
     </row>
-    <row r="266" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="19:30" s="50" customFormat="1">
       <c r="S266" s="67"/>
       <c r="T266" s="67"/>
       <c r="U266" s="67"/>
@@ -13904,7 +13929,7 @@
       <c r="AC266" s="67"/>
       <c r="AD266" s="67"/>
     </row>
-    <row r="267" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="19:30" s="50" customFormat="1">
       <c r="S267" s="67"/>
       <c r="T267" s="67"/>
       <c r="U267" s="67"/>
@@ -13918,7 +13943,7 @@
       <c r="AC267" s="67"/>
       <c r="AD267" s="67"/>
     </row>
-    <row r="268" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="19:30" s="50" customFormat="1">
       <c r="S268" s="67"/>
       <c r="T268" s="67"/>
       <c r="U268" s="67"/>
@@ -13932,7 +13957,7 @@
       <c r="AC268" s="67"/>
       <c r="AD268" s="67"/>
     </row>
-    <row r="269" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="19:30" s="50" customFormat="1">
       <c r="S269" s="67"/>
       <c r="T269" s="67"/>
       <c r="U269" s="67"/>
@@ -13946,7 +13971,7 @@
       <c r="AC269" s="67"/>
       <c r="AD269" s="67"/>
     </row>
-    <row r="270" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="19:30" s="50" customFormat="1">
       <c r="S270" s="67"/>
       <c r="T270" s="67"/>
       <c r="U270" s="67"/>
@@ -13960,7 +13985,7 @@
       <c r="AC270" s="67"/>
       <c r="AD270" s="67"/>
     </row>
-    <row r="271" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="19:30" s="50" customFormat="1">
       <c r="S271" s="67"/>
       <c r="T271" s="67"/>
       <c r="U271" s="67"/>
@@ -13974,7 +13999,7 @@
       <c r="AC271" s="67"/>
       <c r="AD271" s="67"/>
     </row>
-    <row r="272" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="19:30" s="50" customFormat="1">
       <c r="S272" s="67"/>
       <c r="T272" s="67"/>
       <c r="U272" s="67"/>
@@ -13988,7 +14013,7 @@
       <c r="AC272" s="67"/>
       <c r="AD272" s="67"/>
     </row>
-    <row r="273" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="19:30" s="50" customFormat="1">
       <c r="S273" s="67"/>
       <c r="T273" s="67"/>
       <c r="U273" s="67"/>
@@ -14002,7 +14027,7 @@
       <c r="AC273" s="67"/>
       <c r="AD273" s="67"/>
     </row>
-    <row r="274" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="19:30" s="50" customFormat="1">
       <c r="S274" s="67"/>
       <c r="T274" s="67"/>
       <c r="U274" s="67"/>
@@ -14016,7 +14041,7 @@
       <c r="AC274" s="67"/>
       <c r="AD274" s="67"/>
     </row>
-    <row r="275" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="19:30" s="50" customFormat="1">
       <c r="S275" s="67"/>
       <c r="T275" s="67"/>
       <c r="U275" s="67"/>
@@ -14030,7 +14055,7 @@
       <c r="AC275" s="67"/>
       <c r="AD275" s="67"/>
     </row>
-    <row r="276" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="19:30" s="50" customFormat="1">
       <c r="S276" s="67"/>
       <c r="T276" s="67"/>
       <c r="U276" s="67"/>
@@ -14044,7 +14069,7 @@
       <c r="AC276" s="67"/>
       <c r="AD276" s="67"/>
     </row>
-    <row r="277" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="19:30" s="50" customFormat="1">
       <c r="S277" s="67"/>
       <c r="T277" s="67"/>
       <c r="U277" s="67"/>
@@ -14058,7 +14083,7 @@
       <c r="AC277" s="67"/>
       <c r="AD277" s="67"/>
     </row>
-    <row r="278" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="19:30" s="50" customFormat="1">
       <c r="S278" s="67"/>
       <c r="T278" s="67"/>
       <c r="U278" s="67"/>
@@ -14072,7 +14097,7 @@
       <c r="AC278" s="67"/>
       <c r="AD278" s="67"/>
     </row>
-    <row r="279" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="19:30" s="50" customFormat="1">
       <c r="S279" s="67"/>
       <c r="T279" s="67"/>
       <c r="U279" s="67"/>
@@ -14086,7 +14111,7 @@
       <c r="AC279" s="67"/>
       <c r="AD279" s="67"/>
     </row>
-    <row r="280" spans="19:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="19:30" s="50" customFormat="1">
       <c r="S280" s="67"/>
       <c r="T280" s="67"/>
       <c r="U280" s="67"/>
@@ -14107,14 +14132,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -14129,7 +14152,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>18</v>
       </c>
@@ -14140,16 +14163,18 @@
         <v>37899</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -14159,11 +14184,11 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -14193,7 +14218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -14201,7 +14226,7 @@
         <v>20621</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D5" s="18">
         <v>2297</v>
@@ -14215,15 +14240,17 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>12254</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="J5" s="18">
         <v>1881</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -14231,7 +14258,7 @@
         <v>76317</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D6" s="18">
         <v>1824</v>
@@ -14245,27 +14272,25 @@
       <c r="G6" s="10">
         <v>0.5</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>55689</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="J6" s="18">
         <v>1792</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19">
-        <v>48097</v>
-      </c>
+      <c r="B7" s="19"/>
       <c r="C7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1861</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D7" s="18"/>
       <c r="E7" s="10">
         <v>1</v>
       </c>
@@ -14277,13 +14302,11 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="18">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -14291,7 +14314,7 @@
         <v>9954</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D8" s="18">
         <v>1855</v>
@@ -14305,15 +14328,17 @@
       <c r="G8" s="10">
         <v>0.5</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>19143</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="J8" s="18">
         <v>1679</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -14329,7 +14354,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -14345,12 +14370,12 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1959.25</v>
+        <v>1992</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -14365,20 +14390,22 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1758.25</v>
+        <v>1784</v>
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -14388,11 +14415,11 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -14422,7 +14449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -14430,7 +14457,7 @@
         <v>76333</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D15" s="18">
         <v>1862</v>
@@ -14444,15 +14471,17 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>87912</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="J15" s="18">
         <v>2048</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -14460,7 +14489,7 @@
         <v>31348</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D16" s="18">
         <v>1715</v>
@@ -14474,15 +14503,17 @@
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>24856</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J16" s="18">
         <v>1987</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -14490,7 +14521,7 @@
         <v>54658</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D17" s="18">
         <v>1650</v>
@@ -14504,15 +14535,17 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>61794</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="J17" s="18">
         <v>1987</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -14520,7 +14553,7 @@
         <v>28681</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D18" s="18">
         <v>1390</v>
@@ -14534,15 +14567,17 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>12068</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="J18" s="18">
         <v>1573</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
@@ -14566,14 +14601,16 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="15"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -14585,7 +14622,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -14609,7 +14646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -14625,7 +14662,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -14641,7 +14678,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -14657,7 +14694,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -14673,7 +14710,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16"/>
@@ -14690,14 +14727,16 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C29" s="15"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -14709,7 +14748,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -14733,7 +14772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -14749,7 +14788,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -14765,7 +14804,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -14781,7 +14820,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -14797,7 +14836,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16"/>
@@ -14821,14 +14860,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:J17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -14843,7 +14880,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>21</v>
       </c>
@@ -14854,30 +14891,32 @@
         <v>37913</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -14907,13 +14946,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>3531</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D5" s="18">
         <v>1823</v>
@@ -14931,19 +14972,21 @@
         <v>20621</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="J5" s="18">
         <v>2297</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>12696</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D6" s="18">
         <v>1822</v>
@@ -14961,19 +15004,21 @@
         <v>76317</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="J6" s="18">
         <v>1824</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>5525</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D7" s="18">
         <v>1805</v>
@@ -14991,19 +15036,21 @@
         <v>48097</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="J7" s="18">
         <v>1861</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>50873</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D8" s="18">
         <v>1786</v>
@@ -15021,13 +15068,13 @@
         <v>9954</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J8" s="18">
         <v>1855</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -15043,7 +15090,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -15059,7 +15106,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
@@ -15083,30 +15130,32 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -15136,13 +15185,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>523</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D15" s="18">
         <v>1864</v>
@@ -15160,19 +15211,21 @@
         <v>76333</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="J15" s="18">
         <v>1862</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>18538</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D16" s="18">
         <v>1717</v>
@@ -15190,19 +15243,21 @@
         <v>353</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J16" s="18">
         <v>1849</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>71013</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D17" s="18">
         <v>1680</v>
@@ -15220,19 +15275,21 @@
         <v>26816</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J17" s="18">
         <v>1758</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>67164</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D18" s="18">
         <v>1648</v>
@@ -15250,13 +15307,13 @@
         <v>28681</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="J18" s="18">
         <v>1390</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
@@ -15280,12 +15337,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -15301,7 +15358,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -15331,7 +15388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -15347,7 +15404,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -15363,7 +15420,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -15379,7 +15436,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -15395,7 +15452,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -15415,12 +15472,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -15436,7 +15493,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -15466,7 +15523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -15482,7 +15539,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -15498,7 +15555,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -15514,7 +15571,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -15530,7 +15587,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -15557,14 +15614,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -15579,7 +15634,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
@@ -15590,16 +15645,18 @@
         <v>37927</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -15609,11 +15666,11 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -15643,7 +15700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -15651,7 +15708,7 @@
         <v>20621</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D5" s="18">
         <v>2297</v>
@@ -15665,15 +15722,17 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>9342</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="J5" s="18">
         <v>1839</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -15681,7 +15740,7 @@
         <v>76317</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D6" s="18">
         <v>1824</v>
@@ -15695,15 +15754,17 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>21733</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="J6" s="18">
         <v>1838</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -15711,7 +15772,7 @@
         <v>48097</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D7" s="18">
         <v>1861</v>
@@ -15725,15 +15786,17 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>21997</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="J7" s="18">
         <v>1724</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -15741,7 +15804,7 @@
         <v>9954</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D8" s="18">
         <v>1855</v>
@@ -15755,15 +15818,17 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>12301</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="J8" s="18">
         <v>1679</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -15779,7 +15844,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -15795,7 +15860,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
@@ -15819,16 +15884,18 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -15838,11 +15905,11 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -15872,7 +15939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -15880,7 +15947,7 @@
         <v>76333</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D15" s="18">
         <v>1862</v>
@@ -15894,15 +15961,17 @@
       <c r="G15" s="10">
         <v>0.5</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>12670</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="J15" s="18">
         <v>1610</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -15910,7 +15979,7 @@
         <v>31526</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D16" s="18">
         <v>1857</v>
@@ -15924,15 +15993,17 @@
       <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>12271</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J16" s="18">
         <v>1517</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -15940,7 +16011,7 @@
         <v>54658</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D17" s="18">
         <v>1650</v>
@@ -15954,15 +16025,17 @@
       <c r="G17" s="10">
         <v>0.5</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>4812</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="J17" s="18">
         <v>1472</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -15970,7 +16043,7 @@
         <v>28681</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D18" s="18">
         <v>1390</v>
@@ -15984,15 +16057,17 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>50482</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
@@ -16016,12 +16091,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -16037,7 +16112,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -16067,7 +16142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -16083,7 +16158,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -16099,7 +16174,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -16115,7 +16190,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -16131,7 +16206,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -16151,12 +16226,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -16172,7 +16247,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -16202,7 +16277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -16218,7 +16293,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -16234,7 +16309,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -16250,7 +16325,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -16266,7 +16341,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -16293,14 +16368,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -16315,7 +16388,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
@@ -16326,28 +16399,32 @@
         <v>37941</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -16377,13 +16454,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>37044</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D5" s="18">
         <v>2007</v>
@@ -16401,19 +16480,21 @@
         <v>20621</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="J5" s="18">
         <v>2297</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>2330</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D6" s="18">
         <v>1883</v>
@@ -16431,19 +16512,21 @@
         <v>76317</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="J6" s="18">
         <v>1824</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>36447</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D7" s="18">
         <v>1857</v>
@@ -16458,22 +16541,24 @@
         <v>0.5</v>
       </c>
       <c r="H7" s="19">
-        <v>48097</v>
+        <v>9954</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="J7" s="18">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>28258</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D8" s="18">
         <v>1580</v>
@@ -16488,16 +16573,16 @@
         <v>1</v>
       </c>
       <c r="H8" s="19">
-        <v>9954</v>
+        <v>26816</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J8" s="18">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -16513,7 +16598,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -16529,11 +16614,12 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
-        <v>1959.25</v>
+        <f>IFERROR(AVERAGE(D5:D10),"")</f>
+        <v>1831.75</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -16547,32 +16633,37 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="16">
-        <v>1959.25</v>
+        <f>IFERROR(AVERAGE(J5:J10),"")</f>
+        <v>1933.5</v>
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -16602,13 +16693,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>79316</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D15" s="18">
         <v>1778</v>
@@ -16626,19 +16719,21 @@
         <v>76333</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="J15" s="18">
         <v>1862</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>84841</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D16" s="18">
         <v>1484</v>
@@ -16656,19 +16751,21 @@
         <v>31526</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J16" s="18">
         <v>1857</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>64963</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D17" s="18">
         <v>1321</v>
@@ -16686,19 +16783,21 @@
         <v>353</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J17" s="18">
         <v>1849</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>91413</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D18" s="18">
         <v>1173</v>
@@ -16716,17 +16815,18 @@
         <v>28681</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="J18" s="18">
         <v>1390</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
-        <v>1689.75</v>
+        <f>IFERROR(AVERAGE(D15:D18),"")</f>
+        <v>1439</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -16740,16 +16840,17 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">
-        <v>1689.75</v>
+        <f>IFERROR(AVERAGE(J15:J18),"")</f>
+        <v>1739.5</v>
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -16765,7 +16866,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -16795,7 +16896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -16811,7 +16912,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -16827,7 +16928,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -16843,7 +16944,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -16859,7 +16960,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -16879,12 +16980,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -16900,7 +17001,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -16930,7 +17031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -16946,7 +17047,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -16962,7 +17063,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -16978,7 +17079,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -16994,7 +17095,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -17021,14 +17122,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -17043,7 +17142,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
@@ -17054,16 +17153,18 @@
         <v>37955</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -17073,11 +17174,11 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -17107,7 +17208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -17115,7 +17216,7 @@
         <v>20621</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D5" s="18">
         <v>2297</v>
@@ -17129,15 +17230,17 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>51136</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="J5" s="18">
         <v>1879</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -17145,7 +17248,7 @@
         <v>76317</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D6" s="18">
         <v>1824</v>
@@ -17159,15 +17262,17 @@
       <c r="G6" s="10">
         <v>0.5</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>20664</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J6" s="18">
         <v>1809</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -17175,7 +17280,7 @@
         <v>48097</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D7" s="18">
         <v>1861</v>
@@ -17189,15 +17294,17 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>45292</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="J7" s="18">
         <v>1736</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -17205,7 +17312,7 @@
         <v>9954</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D8" s="18">
         <v>1855</v>
@@ -17219,15 +17326,17 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>27286</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J8" s="18">
         <v>1668</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -17243,7 +17352,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -17259,10 +17368,11 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
+        <f>IFERROR(AVERAGE(D5:D10),"")</f>
         <v>1959.25</v>
       </c>
       <c r="D11" s="3"/>
@@ -17282,16 +17392,18 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -17301,11 +17413,11 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -17335,7 +17447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -17343,7 +17455,7 @@
         <v>31526</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D15" s="18">
         <v>1857</v>
@@ -17357,15 +17469,17 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>15261</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="J15" s="18">
         <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -17373,7 +17487,7 @@
         <v>353</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D16" s="18">
         <v>1849</v>
@@ -17387,15 +17501,17 @@
       <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>87751</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="J16" s="18">
         <v>1686</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -17403,7 +17519,7 @@
         <v>26816</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D17" s="18">
         <v>1758</v>
@@ -17417,15 +17533,17 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>86002</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="J17" s="18">
         <v>1625</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -17433,7 +17551,7 @@
         <v>28681</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D18" s="18">
         <v>1390</v>
@@ -17447,19 +17565,22 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>75191</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="J18" s="18">
         <v>1341</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
-        <v>1689.75</v>
+        <f>IFERROR(AVERAGE(D15:D18),"")</f>
+        <v>1713.5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -17478,12 +17599,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -17499,7 +17620,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -17529,7 +17650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -17545,7 +17666,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -17561,7 +17682,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -17577,7 +17698,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -17593,7 +17714,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -17613,12 +17734,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -17634,7 +17755,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -17664,7 +17785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -17680,7 +17801,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -17696,7 +17817,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -17712,7 +17833,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -17728,7 +17849,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -17755,14 +17876,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:J17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -17777,7 +17896,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -17788,28 +17907,32 @@
         <v>37997</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -17839,13 +17962,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>59153</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D5" s="18">
         <v>1755</v>
@@ -17863,19 +17988,21 @@
         <v>20621</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="J5" s="18">
         <v>2297</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>54984</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D6" s="18">
         <v>1698</v>
@@ -17893,19 +18020,21 @@
         <v>76317</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="J6" s="18">
         <v>1824</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>27944</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D7" s="18">
         <v>1603</v>
@@ -17923,19 +18052,21 @@
         <v>48097</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="J7" s="18">
         <v>1861</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>32581</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D8" s="18">
         <v>1456</v>
@@ -17953,13 +18084,13 @@
         <v>9954</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J8" s="18">
         <v>1855</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -17975,7 +18106,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -17991,11 +18122,12 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
-        <v>1959.25</v>
+        <f>IFERROR(AVERAGE(D5:D10),"")</f>
+        <v>1628</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -18009,32 +18141,37 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="16">
+        <f>IFERROR(AVERAGE(J5:J10),"")</f>
         <v>1959.25</v>
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -18064,13 +18201,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>95052</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="D15" s="18">
         <v>2119</v>
@@ -18088,19 +18227,21 @@
         <v>31526</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J15" s="18">
         <v>1857</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>95702</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="D16" s="18">
         <v>2028</v>
@@ -18118,19 +18259,21 @@
         <v>353</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J16" s="18">
         <v>1849</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>74349</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D17" s="18">
         <v>2079</v>
@@ -18148,19 +18291,21 @@
         <v>26816</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J17" s="18">
         <v>1758</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>72508</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D18" s="18">
         <v>2049</v>
@@ -18178,17 +18323,18 @@
         <v>28681</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="J18" s="18">
         <v>1390</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
-        <v>1689.75</v>
+        <f>IFERROR(AVERAGE(D15:D18),"")</f>
+        <v>2068.75</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -18202,16 +18348,17 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">
-        <v>1689.75</v>
+        <f>IFERROR(AVERAGE(J15:J18),"")</f>
+        <v>1713.5</v>
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -18227,7 +18374,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -18257,7 +18404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -18273,7 +18420,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -18289,7 +18436,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -18305,7 +18452,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -18321,7 +18468,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -18341,12 +18488,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -18362,7 +18509,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -18392,7 +18539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -18408,7 +18555,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -18424,7 +18571,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -18440,7 +18587,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -18456,7 +18603,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -18483,14 +18630,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -18505,7 +18650,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>26</v>
       </c>
@@ -18516,16 +18661,18 @@
         <v>38004</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -18535,11 +18682,11 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -18569,7 +18716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -18577,7 +18724,7 @@
         <v>20621</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D5" s="18">
         <v>2297</v>
@@ -18591,15 +18738,17 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>25196</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="J5" s="18">
         <v>2084</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -18607,7 +18756,7 @@
         <v>76317</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D6" s="18">
         <v>1824</v>
@@ -18621,15 +18770,17 @@
       <c r="G6" s="10">
         <v>0.5</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>34584</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="J6" s="18">
         <v>2047</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -18637,7 +18788,7 @@
         <v>48097</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D7" s="18">
         <v>1861</v>
@@ -18651,15 +18802,17 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>3026</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="J7" s="18">
         <v>1840</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -18667,7 +18820,7 @@
         <v>9954</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D8" s="18">
         <v>1855</v>
@@ -18681,15 +18834,17 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>65935</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="J8" s="18">
         <v>1755</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -18705,7 +18860,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -18721,10 +18876,11 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
+        <f>IFERROR(AVERAGE(D5:D10),"")</f>
         <v>1959.25</v>
       </c>
       <c r="D11" s="3"/>
@@ -18744,16 +18900,18 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -18763,11 +18921,11 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -18797,7 +18955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -18805,7 +18963,7 @@
         <v>76333</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D15" s="18">
         <v>1862</v>
@@ -18819,15 +18977,17 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>68012</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="J15" s="18">
         <v>1912</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -18835,7 +18995,7 @@
         <v>353</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D16" s="18">
         <v>1849</v>
@@ -18849,15 +19009,17 @@
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>65871</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="J16" s="18">
         <v>1641</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -18865,7 +19027,7 @@
         <v>655</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D17" s="18">
         <v>1811</v>
@@ -18879,15 +19041,17 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>43605</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="J17" s="18">
         <v>1609</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -18895,7 +19059,7 @@
         <v>26816</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D18" s="18">
         <v>1758</v>
@@ -18909,15 +19073,17 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>66281</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="J18" s="18">
         <v>1476</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
@@ -18941,12 +19107,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -18962,7 +19128,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -18992,7 +19158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -19008,7 +19174,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -19024,7 +19190,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -19040,7 +19206,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -19056,7 +19222,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -19076,12 +19242,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -19097,7 +19263,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -19127,7 +19293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -19143,7 +19309,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -19159,7 +19325,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -19175,7 +19341,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -19191,7 +19357,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -19218,14 +19384,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -19240,7 +19404,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
@@ -19251,30 +19415,32 @@
         <v>38018</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -19304,13 +19470,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>4626</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D5" s="18">
         <v>2006</v>
@@ -19328,19 +19496,21 @@
         <v>20621</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="J5" s="18">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>18686</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D6" s="18">
         <v>1959</v>
@@ -19358,19 +19528,21 @@
         <v>76317</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="J6" s="18">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>39101</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D7" s="18">
         <v>1902</v>
@@ -19388,19 +19560,21 @@
         <v>48097</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="J7" s="18">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>7471</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D8" s="18">
         <v>1791</v>
@@ -19418,13 +19592,13 @@
         <v>9954</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J8" s="18">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -19440,7 +19614,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -19456,7 +19630,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
@@ -19475,34 +19649,37 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="16">
-        <v>1959.25</v>
+        <f>IFERROR(AVERAGE(J5:J10),"")</f>
+        <v>1976.25</v>
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -19532,13 +19709,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>89681</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D15" s="18">
         <v>1942</v>
@@ -19556,19 +19735,21 @@
         <v>76333</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="J15" s="18">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>66800</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D16" s="18">
         <v>1858</v>
@@ -19586,19 +19767,21 @@
         <v>31526</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J16" s="18">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>93335</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="D17" s="18">
         <v>1860</v>
@@ -19616,19 +19799,21 @@
         <v>26816</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J17" s="18">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>93360</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="D18" s="18">
         <v>1798</v>
@@ -19646,13 +19831,13 @@
         <v>28681</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="J18" s="18">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
@@ -19671,16 +19856,17 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">
-        <v>1689.75</v>
+        <f>IFERROR(AVERAGE(J15:J18),"")</f>
+        <v>1705.75</v>
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -19696,7 +19882,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -19726,7 +19912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -19742,7 +19928,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -19758,7 +19944,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -19774,7 +19960,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -19790,7 +19976,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -19810,12 +19996,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -19831,7 +20017,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -19861,7 +20047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -19877,7 +20063,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -19893,7 +20079,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -19909,7 +20095,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -19925,7 +20111,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
